--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C9FFE-8B81-4072-BAF2-38B38EE41D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EAE0A-3F73-4BEB-B526-BC3C3FF943CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15315" yWindow="-13875" windowWidth="19380" windowHeight="11205" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11175" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Observations</t>
   </si>
@@ -54,6 +56,15 @@
   </si>
   <si>
     <t>% (1-Default)</t>
+  </si>
+  <si>
+    <t>ASB</t>
+  </si>
+  <si>
+    <t>ASL</t>
+  </si>
+  <si>
+    <t>% (1-Refinance)</t>
   </si>
 </sst>
 </file>
@@ -153,8 +164,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="tot_tut"/>
     </sheetNames>
@@ -176,22 +190,28 @@
           <cell r="E2" t="str">
             <v>(4)</v>
           </cell>
+          <cell r="F2" t="str">
+            <v>(5)</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>ATE</v>
           </cell>
           <cell r="B5" t="str">
-            <v>34.6***</v>
+            <v>35.6***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>386.1***</v>
+            <v>389.4***</v>
           </cell>
           <cell r="D5" t="str">
             <v>13.3***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>7.57***</v>
+            <v>7.68***</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>6.34**</v>
           </cell>
         </row>
         <row r="6">
@@ -199,7 +219,7 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(8.25)</v>
+            <v>(8.30)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(117.6)</v>
@@ -209,6 +229,9 @@
           </cell>
           <cell r="E6" t="str">
             <v>(2.50)</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>(2.90)</v>
           </cell>
         </row>
         <row r="8">
@@ -216,16 +239,19 @@
             <v>ToT</v>
           </cell>
           <cell r="B8" t="str">
-            <v>119.5*</v>
+            <v>139.7**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>624.2</v>
+            <v>704.0</v>
           </cell>
           <cell r="D8" t="str">
             <v>15.4</v>
           </cell>
           <cell r="E8" t="str">
-            <v>37.3*</v>
+            <v>39.4*</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>-25.9</v>
           </cell>
         </row>
         <row r="9">
@@ -233,16 +259,19 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(67.7)</v>
+            <v>(67.8)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(1086.7)</v>
+            <v>(1085.7)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(20.4)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(21.5)</v>
+            <v>(21.6)</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>(29.1)</v>
           </cell>
         </row>
         <row r="11">
@@ -250,16 +279,19 @@
             <v>TuT</v>
           </cell>
           <cell r="B11" t="str">
-            <v>24.5***</v>
+            <v>23.2***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>357.7***</v>
+            <v>351.9***</v>
           </cell>
           <cell r="D11" t="str">
             <v>13.1***</v>
           </cell>
           <cell r="E11" t="str">
-            <v>4.02*</v>
+            <v>3.89</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>10.2***</v>
           </cell>
         </row>
         <row r="12">
@@ -267,7 +299,7 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(8.26)</v>
+            <v>(8.17)</v>
           </cell>
           <cell r="C12" t="str">
             <v>(107.9)</v>
@@ -277,6 +309,9 @@
           </cell>
           <cell r="E12" t="str">
             <v>(2.40)</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>(2.90)</v>
           </cell>
         </row>
         <row r="14">
@@ -284,16 +319,19 @@
             <v>E[Y1]</v>
           </cell>
           <cell r="B14" t="str">
-            <v>-182.5***</v>
+            <v>-183.5***</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-1847.7***</v>
+            <v>-1851.0***</v>
           </cell>
           <cell r="D14" t="str">
             <v>43.3***</v>
           </cell>
           <cell r="E14" t="str">
-            <v>-43.4***</v>
+            <v>-43.5***</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>-39.1***</v>
           </cell>
         </row>
         <row r="15">
@@ -312,6 +350,9 @@
           <cell r="E15" t="str">
             <v>(1.69)</v>
           </cell>
+          <cell r="F15" t="str">
+            <v>(1.70)</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -329,22 +370,28 @@
           <cell r="E17" t="str">
             <v>-35.8***</v>
           </cell>
+          <cell r="F17" t="str">
+            <v>-32.8***</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
             <v/>
           </cell>
           <cell r="B18" t="str">
-            <v>(5.75)</v>
+            <v>(5.82)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(95.0)</v>
+            <v>(94.9)</v>
           </cell>
           <cell r="D18" t="str">
             <v>(1.65)</v>
           </cell>
           <cell r="E18" t="str">
             <v>(1.84)</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>(2.35)</v>
           </cell>
         </row>
         <row r="20">
@@ -352,16 +399,19 @@
             <v>ToT-TuT</v>
           </cell>
           <cell r="B20" t="str">
-            <v>95.1</v>
+            <v>116.6</v>
           </cell>
           <cell r="C20" t="str">
-            <v>266.5</v>
+            <v>352.1</v>
           </cell>
           <cell r="D20" t="str">
             <v>2.37</v>
           </cell>
           <cell r="E20" t="str">
-            <v>33.2</v>
+            <v>35.5</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>-36.1</v>
           </cell>
         </row>
         <row r="21">
@@ -369,16 +419,19 @@
             <v/>
           </cell>
           <cell r="B21" t="str">
-            <v>(71.0)</v>
+            <v>(70.9)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(1133.8)</v>
+            <v>(1132.7)</v>
           </cell>
           <cell r="D21" t="str">
             <v>(21.6)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(22.5)</v>
+            <v>(22.6)</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>(30.6)</v>
           </cell>
         </row>
         <row r="23">
@@ -394,22 +447,28 @@
           <cell r="E23" t="str">
             <v>6304</v>
           </cell>
+          <cell r="F23" t="str">
+            <v>6304</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
             <v>Control Mean</v>
           </cell>
           <cell r="B24" t="str">
-            <v>-182.5</v>
+            <v>-183.5</v>
           </cell>
           <cell r="C24" t="str">
-            <v>-1847.7</v>
+            <v>-1851.0</v>
           </cell>
           <cell r="D24" t="str">
             <v>43.3</v>
           </cell>
           <cell r="E24" t="str">
-            <v>-43.4</v>
+            <v>-43.5</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>-39.1</v>
           </cell>
         </row>
         <row r="25">
@@ -417,16 +476,19 @@
             <v>H_0 : ATE-TuT=0</v>
           </cell>
           <cell r="B25" t="str">
-            <v>0.18</v>
+            <v>0.10</v>
           </cell>
           <cell r="C25" t="str">
-            <v>0.81</v>
+            <v>0.76</v>
           </cell>
           <cell r="D25" t="str">
             <v>0.91</v>
           </cell>
           <cell r="E25" t="str">
-            <v>0.14</v>
+            <v>0.11</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>0.23</v>
           </cell>
         </row>
         <row r="26">
@@ -434,16 +496,19 @@
             <v>H_0 : ATE-ToT=0</v>
           </cell>
           <cell r="B26" t="str">
-            <v>0.18</v>
+            <v>0.10</v>
           </cell>
           <cell r="C26" t="str">
-            <v>0.81</v>
+            <v>0.76</v>
           </cell>
           <cell r="D26" t="str">
             <v>0.91</v>
           </cell>
           <cell r="E26" t="str">
-            <v>0.14</v>
+            <v>0.12</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>0.24</v>
           </cell>
         </row>
         <row r="27">
@@ -451,16 +516,19 @@
             <v>H_0 : ToT-TuT=0</v>
           </cell>
           <cell r="B27" t="str">
-            <v>0.18</v>
+            <v>0.10</v>
           </cell>
           <cell r="C27" t="str">
-            <v>0.81</v>
+            <v>0.76</v>
           </cell>
           <cell r="D27" t="str">
             <v>0.91</v>
           </cell>
           <cell r="E27" t="str">
-            <v>0.14</v>
+            <v>0.12</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>0.24</v>
           </cell>
         </row>
         <row r="28">
@@ -468,16 +536,104 @@
             <v>H_0 : ToT-TuT$\geq$ 0</v>
           </cell>
           <cell r="B28" t="str">
-            <v>0.091</v>
+            <v>0.051</v>
           </cell>
           <cell r="C28" t="str">
-            <v>0.41</v>
+            <v>0.38</v>
           </cell>
           <cell r="D28" t="str">
             <v>0.46</v>
           </cell>
           <cell r="E28" t="str">
-            <v>0.070</v>
+            <v>0.058</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>0.88</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="asb_asl"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>-130.2</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>-117.8</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>-2.23</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>-41.4</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>22.7</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>70.1</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>1131.4</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>21.3</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>21.8</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>29.8</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>-13.6</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>234.3</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>0.14</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>-5.90</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>-13.4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>19.6</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>240.5</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>5.63</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>5.61</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>6.20</v>
           </cell>
         </row>
       </sheetData>
@@ -775,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,19 +939,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254A23C4-4F24-410C-AB8B-7C80ABB413D1}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -809,8 +965,11 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f>[1]tot_tut!A2</f>
         <v/>
@@ -831,19 +990,23 @@
         <f>[1]tot_tut!E2</f>
         <v>(4)</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="5" t="str">
+        <f>[1]tot_tut!F2</f>
+        <v>(5)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>[1]tot_tut!A5</f>
         <v>ATE</v>
       </c>
       <c r="B4" s="6" t="str">
         <f>[1]tot_tut!B5</f>
-        <v>34.6***</v>
+        <v>35.6***</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>[1]tot_tut!C5</f>
-        <v>386.1***</v>
+        <v>389.4***</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>[1]tot_tut!D5</f>
@@ -851,17 +1014,21 @@
       </c>
       <c r="E4" s="6" t="str">
         <f>[1]tot_tut!E5</f>
-        <v>7.57***</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.68***</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f>[1]tot_tut!F5</f>
+        <v>6.34**</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>[1]tot_tut!A6</f>
         <v/>
       </c>
       <c r="B5" s="6" t="str">
         <f>[1]tot_tut!B6</f>
-        <v>(8.25)</v>
+        <v>(8.30)</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>[1]tot_tut!C6</f>
@@ -875,19 +1042,23 @@
         <f>[1]tot_tut!E6</f>
         <v>(2.50)</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="6" t="str">
+        <f>[1]tot_tut!F6</f>
+        <v>(2.90)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>[1]tot_tut!A8</f>
         <v>ToT</v>
       </c>
       <c r="B6" s="6" t="str">
         <f>[1]tot_tut!B8</f>
-        <v>119.5*</v>
+        <v>139.7**</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>[1]tot_tut!C8</f>
-        <v>624.2</v>
+        <v>704.0</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>[1]tot_tut!D8</f>
@@ -895,21 +1066,25 @@
       </c>
       <c r="E6" s="6" t="str">
         <f>[1]tot_tut!E8</f>
-        <v>37.3*</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>39.4*</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>[1]tot_tut!F8</f>
+        <v>-25.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>[1]tot_tut!A9</f>
         <v/>
       </c>
       <c r="B7" s="6" t="str">
         <f>[1]tot_tut!B9</f>
-        <v>(67.7)</v>
+        <v>(67.8)</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>[1]tot_tut!C9</f>
-        <v>(1086.7)</v>
+        <v>(1085.7)</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>[1]tot_tut!D9</f>
@@ -917,21 +1092,25 @@
       </c>
       <c r="E7" s="6" t="str">
         <f>[1]tot_tut!E9</f>
-        <v>(21.5)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>(21.6)</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f>[1]tot_tut!F9</f>
+        <v>(29.1)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>[1]tot_tut!A11</f>
         <v>TuT</v>
       </c>
       <c r="B8" s="6" t="str">
         <f>[1]tot_tut!B11</f>
-        <v>24.5***</v>
+        <v>23.2***</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>[1]tot_tut!C11</f>
-        <v>357.7***</v>
+        <v>351.9***</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>[1]tot_tut!D11</f>
@@ -939,17 +1118,21 @@
       </c>
       <c r="E8" s="6" t="str">
         <f>[1]tot_tut!E11</f>
-        <v>4.02*</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.89</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f>[1]tot_tut!F11</f>
+        <v>10.2***</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>[1]tot_tut!A12</f>
         <v/>
       </c>
       <c r="B9" s="6" t="str">
         <f>[1]tot_tut!B12</f>
-        <v>(8.26)</v>
+        <v>(8.17)</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>[1]tot_tut!C12</f>
@@ -963,19 +1146,23 @@
         <f>[1]tot_tut!E12</f>
         <v>(2.40)</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="6" t="str">
+        <f>[1]tot_tut!F12</f>
+        <v>(2.90)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>[1]tot_tut!A14</f>
         <v>E[Y1]</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!B14</f>
-        <v>-182.5***</v>
+        <v>-183.5***</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>[1]tot_tut!C14</f>
-        <v>-1847.7***</v>
+        <v>-1851.0***</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>[1]tot_tut!D14</f>
@@ -983,10 +1170,14 @@
       </c>
       <c r="E10" s="6" t="str">
         <f>[1]tot_tut!E14</f>
-        <v>-43.4***</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-43.5***</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>[1]tot_tut!F14</f>
+        <v>-39.1***</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>[1]tot_tut!A15</f>
         <v/>
@@ -1007,8 +1198,12 @@
         <f>[1]tot_tut!E15</f>
         <v>(1.69)</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="6" t="str">
+        <f>[1]tot_tut!F15</f>
+        <v>(1.70)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>[1]tot_tut!A17</f>
         <v>E[Y0]</v>
@@ -1029,19 +1224,23 @@
         <f>[1]tot_tut!E17</f>
         <v>-35.8***</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="6" t="str">
+        <f>[1]tot_tut!F17</f>
+        <v>-32.8***</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>[1]tot_tut!A18</f>
         <v/>
       </c>
       <c r="B13" s="6" t="str">
         <f>[1]tot_tut!B18</f>
-        <v>(5.75)</v>
+        <v>(5.82)</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>[1]tot_tut!C18</f>
-        <v>(95.0)</v>
+        <v>(94.9)</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>[1]tot_tut!D18</f>
@@ -1051,19 +1250,23 @@
         <f>[1]tot_tut!E18</f>
         <v>(1.84)</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="6" t="str">
+        <f>[1]tot_tut!F18</f>
+        <v>(2.35)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>[1]tot_tut!A20</f>
         <v>ToT-TuT</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>[1]tot_tut!B20</f>
-        <v>95.1</v>
+        <v>116.6</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>[1]tot_tut!C20</f>
-        <v>266.5</v>
+        <v>352.1</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>[1]tot_tut!D20</f>
@@ -1071,21 +1274,25 @@
       </c>
       <c r="E14" s="7" t="str">
         <f>[1]tot_tut!E20</f>
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35.5</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>[1]tot_tut!F20</f>
+        <v>-36.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>[1]tot_tut!A21</f>
         <v/>
       </c>
       <c r="B15" s="6" t="str">
         <f>[1]tot_tut!B21</f>
-        <v>(71.0)</v>
+        <v>(70.9)</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>[1]tot_tut!C21</f>
-        <v>(1133.8)</v>
+        <v>(1132.7)</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>[1]tot_tut!D21</f>
@@ -1093,141 +1300,263 @@
       </c>
       <c r="E15" s="6" t="str">
         <f>[1]tot_tut!E21</f>
-        <v>(22.5)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+        <v>(22.6)</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f>[1]tot_tut!F21</f>
+        <v>(30.6)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f>[2]asb_asl!B21</f>
+        <v>-130.2</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>[2]asb_asl!C21</f>
+        <v>-117.8</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>[2]asb_asl!D21</f>
+        <v>-2.23</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f>[2]asb_asl!E21</f>
+        <v>-41.4</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f>[2]asb_asl!F21</f>
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!B22,")")</f>
+        <v>(70.1)</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!C22,")")</f>
+        <v>(1131.4)</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!D22,")")</f>
+        <v>(21.3)</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!E22,")")</f>
+        <v>(21.8)</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!F22,")")</f>
+        <v>(29.8)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <f>[2]asb_asl!B23</f>
+        <v>-13.6</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f>[2]asb_asl!C23</f>
+        <v>234.3</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f>[2]asb_asl!D23</f>
+        <v>0.14</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f>[2]asb_asl!E23</f>
+        <v>-5.90</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f>[2]asb_asl!F23</f>
+        <v>-13.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!B24,")")</f>
+        <v>(19.6)</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!C24,")")</f>
+        <v>(240.5)</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!D24,")")</f>
+        <v>(5.63)</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!E24,")")</f>
+        <v>(5.61)</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f>_xlfn.CONCAT("(",[2]asb_asl!F24,")")</f>
+        <v>(6.20)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B21" s="7" t="str">
         <f>[1]tot_tut!B23</f>
         <v>6304</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C21" s="7" t="str">
         <f>[1]tot_tut!C23</f>
         <v>6304</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D21" s="7" t="str">
         <f>[1]tot_tut!D23</f>
         <v>6304</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E21" s="7" t="str">
         <f>[1]tot_tut!E23</f>
         <v>6304</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
+      <c r="F21" s="7" t="str">
+        <f>[1]tot_tut!F23</f>
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
         <f>[1]tot_tut!A24</f>
         <v>Control Mean</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B22" s="6" t="str">
         <f>[1]tot_tut!B24</f>
-        <v>-182.5</v>
-      </c>
-      <c r="C18" s="6" t="str">
+        <v>-183.5</v>
+      </c>
+      <c r="C22" s="6" t="str">
         <f>[1]tot_tut!C24</f>
-        <v>-1847.7</v>
-      </c>
-      <c r="D18" s="6" t="str">
+        <v>-1851.0</v>
+      </c>
+      <c r="D22" s="6" t="str">
         <f>[1]tot_tut!D24</f>
         <v>43.3</v>
       </c>
-      <c r="E18" s="6" t="str">
+      <c r="E22" s="6" t="str">
         <f>[1]tot_tut!E24</f>
-        <v>-43.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
+        <v>-43.5</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f>[1]tot_tut!F24</f>
+        <v>-39.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
         <f>[1]tot_tut!A25</f>
         <v>H_0 : ATE-TuT=0</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B23" s="6" t="str">
         <f>[1]tot_tut!B25</f>
-        <v>0.18</v>
-      </c>
-      <c r="C19" s="6" t="str">
+        <v>0.10</v>
+      </c>
+      <c r="C23" s="6" t="str">
         <f>[1]tot_tut!C25</f>
-        <v>0.81</v>
-      </c>
-      <c r="D19" s="6" t="str">
+        <v>0.76</v>
+      </c>
+      <c r="D23" s="6" t="str">
         <f>[1]tot_tut!D25</f>
         <v>0.91</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="E23" s="6" t="str">
         <f>[1]tot_tut!E25</f>
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
+        <v>0.11</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f>[1]tot_tut!F25</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
         <f>[1]tot_tut!A26</f>
         <v>H_0 : ATE-ToT=0</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B24" s="6" t="str">
         <f>[1]tot_tut!B26</f>
-        <v>0.18</v>
-      </c>
-      <c r="C20" s="6" t="str">
+        <v>0.10</v>
+      </c>
+      <c r="C24" s="6" t="str">
         <f>[1]tot_tut!C26</f>
-        <v>0.81</v>
-      </c>
-      <c r="D20" s="6" t="str">
+        <v>0.76</v>
+      </c>
+      <c r="D24" s="6" t="str">
         <f>[1]tot_tut!D26</f>
         <v>0.91</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E24" s="6" t="str">
         <f>[1]tot_tut!E26</f>
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="str">
+        <v>0.12</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f>[1]tot_tut!F26</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
         <f>[1]tot_tut!A27</f>
         <v>H_0 : ToT-TuT=0</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B25" s="6" t="str">
         <f>[1]tot_tut!B27</f>
-        <v>0.18</v>
-      </c>
-      <c r="C21" s="6" t="str">
+        <v>0.10</v>
+      </c>
+      <c r="C25" s="6" t="str">
         <f>[1]tot_tut!C27</f>
-        <v>0.81</v>
-      </c>
-      <c r="D21" s="6" t="str">
+        <v>0.76</v>
+      </c>
+      <c r="D25" s="6" t="str">
         <f>[1]tot_tut!D27</f>
         <v>0.91</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E25" s="6" t="str">
         <f>[1]tot_tut!E27</f>
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="str">
+        <v>0.12</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f>[1]tot_tut!F27</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="str">
         <f>[1]tot_tut!A28</f>
         <v>H_0 : ToT-TuT$\geq$ 0</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B26" s="5" t="str">
         <f>[1]tot_tut!B28</f>
-        <v>0.091</v>
-      </c>
-      <c r="C22" s="5" t="str">
+        <v>0.051</v>
+      </c>
+      <c r="C26" s="5" t="str">
         <f>[1]tot_tut!C28</f>
-        <v>0.41</v>
-      </c>
-      <c r="D22" s="5" t="str">
+        <v>0.38</v>
+      </c>
+      <c r="D26" s="5" t="str">
         <f>[1]tot_tut!D28</f>
         <v>0.46</v>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="E26" s="5" t="str">
         <f>[1]tot_tut!E28</f>
-        <v>0.070</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>0.058</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f>[1]tot_tut!F28</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EAE0A-3F73-4BEB-B526-BC3C3FF943CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE8A658-1C09-4158-A52E-C859C16CFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11175" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="4240" yWindow="0" windowWidth="12030" windowHeight="11280" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Observations</t>
   </si>
@@ -52,19 +50,28 @@
     <t>APR % benefit</t>
   </si>
   <si>
-    <t>% Recovery</t>
-  </si>
-  <si>
     <t>% (1-Default)</t>
   </si>
   <si>
-    <t>ASB</t>
+    <t>% (1-Refinance)</t>
   </si>
   <si>
-    <t>ASL</t>
+    <t>$H_0$ : ATE-TuT=0</t>
   </si>
   <si>
-    <t>% (1-Refinance)</t>
+    <t>$H_0$ : ATE-ToT=0</t>
+  </si>
+  <si>
+    <t>$H_0$ : ToT-TuT=0</t>
+  </si>
+  <si>
+    <t>$H_0$ : ToT-TuT$\geq$ 0</t>
+  </si>
+  <si>
+    <t>$\mathbb{E}[Y_1]$</t>
+  </si>
+  <si>
+    <t>$\mathbb{E}[Y_0]$</t>
   </si>
 </sst>
 </file>
@@ -190,9 +197,6 @@
           <cell r="E2" t="str">
             <v>(4)</v>
           </cell>
-          <cell r="F2" t="str">
-            <v>(5)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -205,12 +209,9 @@
             <v>389.4***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>13.3***</v>
+            <v>7.68***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>7.68***</v>
-          </cell>
-          <cell r="F5" t="str">
             <v>6.34**</v>
           </cell>
         </row>
@@ -225,12 +226,9 @@
             <v>(117.6)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(2.56)</v>
+            <v>(2.50)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(2.50)</v>
-          </cell>
-          <cell r="F6" t="str">
             <v>(2.90)</v>
           </cell>
         </row>
@@ -239,18 +237,15 @@
             <v>ToT</v>
           </cell>
           <cell r="B8" t="str">
-            <v>139.7**</v>
+            <v>132.7*</v>
           </cell>
           <cell r="C8" t="str">
-            <v>704.0</v>
+            <v>668.3</v>
           </cell>
           <cell r="D8" t="str">
-            <v>15.4</v>
+            <v>38.7*</v>
           </cell>
           <cell r="E8" t="str">
-            <v>39.4*</v>
-          </cell>
-          <cell r="F8" t="str">
             <v>-25.9</v>
           </cell>
         </row>
@@ -262,15 +257,12 @@
             <v>(67.8)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(1085.7)</v>
+            <v>(1085.4)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(20.4)</v>
+            <v>(21.5)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(21.6)</v>
-          </cell>
-          <cell r="F9" t="str">
             <v>(29.1)</v>
           </cell>
         </row>
@@ -279,18 +271,15 @@
             <v>TuT</v>
           </cell>
           <cell r="B11" t="str">
-            <v>23.2***</v>
+            <v>24.0***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>351.9***</v>
+            <v>356.1***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>13.1***</v>
+            <v>3.98*</v>
           </cell>
           <cell r="E11" t="str">
-            <v>3.89</v>
-          </cell>
-          <cell r="F11" t="str">
             <v>10.2***</v>
           </cell>
         </row>
@@ -299,25 +288,19 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(8.17)</v>
+            <v>(8.20)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(107.9)</v>
+            <v>(107.8)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(2.71)</v>
+            <v>(2.40)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(2.40)</v>
-          </cell>
-          <cell r="F12" t="str">
             <v>(2.90)</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>E[Y1]</v>
-          </cell>
           <cell r="B14" t="str">
             <v>-183.5***</v>
           </cell>
@@ -325,12 +308,9 @@
             <v>-1851.0***</v>
           </cell>
           <cell r="D14" t="str">
-            <v>43.3***</v>
+            <v>-43.5***</v>
           </cell>
           <cell r="E14" t="str">
-            <v>-43.5***</v>
-          </cell>
-          <cell r="F14" t="str">
             <v>-39.1***</v>
           </cell>
         </row>
@@ -345,19 +325,13 @@
             <v>(69.4)</v>
           </cell>
           <cell r="D15" t="str">
-            <v>(1.95)</v>
+            <v>(1.69)</v>
           </cell>
           <cell r="E15" t="str">
-            <v>(1.69)</v>
-          </cell>
-          <cell r="F15" t="str">
             <v>(1.70)</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>E[Y0]</v>
-          </cell>
           <cell r="B17" t="str">
             <v>-147.9***</v>
           </cell>
@@ -365,12 +339,9 @@
             <v>-1461.6***</v>
           </cell>
           <cell r="D17" t="str">
-            <v>56.6***</v>
+            <v>-35.8***</v>
           </cell>
           <cell r="E17" t="str">
-            <v>-35.8***</v>
-          </cell>
-          <cell r="F17" t="str">
             <v>-32.8***</v>
           </cell>
         </row>
@@ -385,12 +356,9 @@
             <v>(94.9)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(1.65)</v>
+            <v>(1.84)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(1.84)</v>
-          </cell>
-          <cell r="F18" t="str">
             <v>(2.35)</v>
           </cell>
         </row>
@@ -399,18 +367,15 @@
             <v>ToT-TuT</v>
           </cell>
           <cell r="B20" t="str">
-            <v>116.6</v>
+            <v>108.7</v>
           </cell>
           <cell r="C20" t="str">
-            <v>352.1</v>
+            <v>312.2</v>
           </cell>
           <cell r="D20" t="str">
-            <v>2.37</v>
+            <v>34.7</v>
           </cell>
           <cell r="E20" t="str">
-            <v>35.5</v>
-          </cell>
-          <cell r="F20" t="str">
             <v>-36.1</v>
           </cell>
         </row>
@@ -422,218 +387,162 @@
             <v>(70.9)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(1132.7)</v>
+            <v>(1132.4)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(21.6)</v>
+            <v>(22.5)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(22.6)</v>
-          </cell>
-          <cell r="F21" t="str">
             <v>(30.6)</v>
           </cell>
         </row>
         <row r="23">
+          <cell r="A23" t="str">
+            <v>ASB</v>
+          </cell>
           <cell r="B23" t="str">
-            <v>6304</v>
+            <v>-122.3*</v>
           </cell>
           <cell r="C23" t="str">
-            <v>6304</v>
+            <v>-77.9</v>
           </cell>
           <cell r="D23" t="str">
-            <v>6304</v>
+            <v>-40.6*</v>
           </cell>
           <cell r="E23" t="str">
-            <v>6304</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>6304</v>
+            <v>22.7</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="A24" t="str">
-            <v>Control Mean</v>
-          </cell>
           <cell r="B24" t="str">
-            <v>-183.5</v>
+            <v>(70.5)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>-1851.0</v>
+            <v>(1127.5)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>43.3</v>
+            <v>(22.2)</v>
           </cell>
           <cell r="E24" t="str">
-            <v>-43.5</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>-39.1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>H_0 : ATE-TuT=0</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>0.10</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>0.76</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>0.91</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>0.11</v>
-          </cell>
-          <cell r="F25" t="str">
-            <v>0.23</v>
+            <v>(30.1)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>H_0 : ATE-ToT=0</v>
+            <v>ASL</v>
           </cell>
           <cell r="B26" t="str">
-            <v>0.10</v>
+            <v>-13.6</v>
           </cell>
           <cell r="C26" t="str">
-            <v>0.76</v>
+            <v>234.3</v>
           </cell>
           <cell r="D26" t="str">
-            <v>0.91</v>
+            <v>-5.90</v>
           </cell>
           <cell r="E26" t="str">
+            <v>-13.4***</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>(15.9)</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>(154.4)</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>(4.29)</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>(4.20)</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>6304</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>6304</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>6304</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>6304</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Control Mean</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>-183.5</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>-1851.0</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>-43.5</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>-39.1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>0.13</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>0.78</v>
+          </cell>
+          <cell r="D31" t="str">
             <v>0.12</v>
           </cell>
-          <cell r="F26" t="str">
+          <cell r="E31" t="str">
+            <v>0.23</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>0.13</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>0.78</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>0.13</v>
+          </cell>
+          <cell r="E32" t="str">
             <v>0.24</v>
           </cell>
         </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>H_0 : ToT-TuT=0</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>0.10</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>0.76</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>0.91</v>
-          </cell>
-          <cell r="E27" t="str">
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>0.13</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>0.78</v>
+          </cell>
+          <cell r="D33" t="str">
             <v>0.12</v>
           </cell>
-          <cell r="F27" t="str">
+          <cell r="E33" t="str">
             <v>0.24</v>
           </cell>
         </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>H_0 : ToT-TuT$\geq$ 0</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>0.051</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>0.38</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>0.46</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>0.058</v>
-          </cell>
-          <cell r="F28" t="str">
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>0.063</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>0.39</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>0.062</v>
+          </cell>
+          <cell r="E34" t="str">
             <v>0.88</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="asb_asl"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>-130.2</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>-117.8</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>-2.23</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>-41.4</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>22.7</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>70.1</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>1131.4</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>21.3</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>21.8</v>
-          </cell>
-          <cell r="F22" t="str">
-            <v>29.8</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>-13.6</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>234.3</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>0.14</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>-5.90</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>-13.4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>19.6</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>240.5</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>5.63</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>5.61</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>6.20</v>
           </cell>
         </row>
       </sheetData>
@@ -939,19 +848,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254A23C4-4F24-410C-AB8B-7C80ABB413D1}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -965,11 +877,8 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="str">
         <f>[1]tot_tut!A2</f>
         <v/>
@@ -990,12 +899,8 @@
         <f>[1]tot_tut!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F3" s="5" t="str">
-        <f>[1]tot_tut!F2</f>
-        <v>(5)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>[1]tot_tut!A5</f>
         <v>ATE</v>
@@ -1010,18 +915,14 @@
       </c>
       <c r="D4" s="6" t="str">
         <f>[1]tot_tut!D5</f>
-        <v>13.3***</v>
+        <v>7.68***</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>[1]tot_tut!E5</f>
-        <v>7.68***</v>
-      </c>
-      <c r="F4" s="6" t="str">
-        <f>[1]tot_tut!F5</f>
         <v>6.34**</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>[1]tot_tut!A6</f>
         <v/>
@@ -1036,44 +937,36 @@
       </c>
       <c r="D5" s="6" t="str">
         <f>[1]tot_tut!D6</f>
-        <v>(2.56)</v>
+        <v>(2.50)</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>[1]tot_tut!E6</f>
-        <v>(2.50)</v>
-      </c>
-      <c r="F5" s="6" t="str">
-        <f>[1]tot_tut!F6</f>
         <v>(2.90)</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]tot_tut!A8</f>
         <v>ToT</v>
       </c>
       <c r="B6" s="6" t="str">
         <f>[1]tot_tut!B8</f>
-        <v>139.7**</v>
+        <v>132.7*</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>[1]tot_tut!C8</f>
-        <v>704.0</v>
+        <v>668.3</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>[1]tot_tut!D8</f>
-        <v>15.4</v>
+        <v>38.7*</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>[1]tot_tut!E8</f>
-        <v>39.4*</v>
-      </c>
-      <c r="F6" s="6" t="str">
-        <f>[1]tot_tut!F8</f>
         <v>-25.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>[1]tot_tut!A9</f>
         <v/>
@@ -1084,77 +977,64 @@
       </c>
       <c r="C7" s="6" t="str">
         <f>[1]tot_tut!C9</f>
-        <v>(1085.7)</v>
+        <v>(1085.4)</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>[1]tot_tut!D9</f>
-        <v>(20.4)</v>
+        <v>(21.5)</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>[1]tot_tut!E9</f>
-        <v>(21.6)</v>
-      </c>
-      <c r="F7" s="6" t="str">
-        <f>[1]tot_tut!F9</f>
         <v>(29.1)</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]tot_tut!A11</f>
         <v>TuT</v>
       </c>
       <c r="B8" s="6" t="str">
         <f>[1]tot_tut!B11</f>
-        <v>23.2***</v>
+        <v>24.0***</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>[1]tot_tut!C11</f>
-        <v>351.9***</v>
+        <v>356.1***</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>[1]tot_tut!D11</f>
-        <v>13.1***</v>
+        <v>3.98*</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>[1]tot_tut!E11</f>
-        <v>3.89</v>
-      </c>
-      <c r="F8" s="6" t="str">
-        <f>[1]tot_tut!F11</f>
         <v>10.2***</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]tot_tut!A12</f>
         <v/>
       </c>
       <c r="B9" s="6" t="str">
         <f>[1]tot_tut!B12</f>
-        <v>(8.17)</v>
+        <v>(8.20)</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>[1]tot_tut!C12</f>
-        <v>(107.9)</v>
+        <v>(107.8)</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>[1]tot_tut!D12</f>
-        <v>(2.71)</v>
+        <v>(2.40)</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>[1]tot_tut!E12</f>
-        <v>(2.40)</v>
-      </c>
-      <c r="F9" s="6" t="str">
-        <f>[1]tot_tut!F12</f>
         <v>(2.90)</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>[1]tot_tut!A14</f>
-        <v>E[Y1]</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!B14</f>
@@ -1166,18 +1046,14 @@
       </c>
       <c r="D10" s="6" t="str">
         <f>[1]tot_tut!D14</f>
-        <v>43.3***</v>
+        <v>-43.5***</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>[1]tot_tut!E14</f>
-        <v>-43.5***</v>
-      </c>
-      <c r="F10" s="6" t="str">
-        <f>[1]tot_tut!F14</f>
         <v>-39.1***</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]tot_tut!A15</f>
         <v/>
@@ -1192,21 +1068,16 @@
       </c>
       <c r="D11" s="6" t="str">
         <f>[1]tot_tut!D15</f>
-        <v>(1.95)</v>
+        <v>(1.69)</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>[1]tot_tut!E15</f>
-        <v>(1.69)</v>
-      </c>
-      <c r="F11" s="6" t="str">
-        <f>[1]tot_tut!F15</f>
         <v>(1.70)</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>[1]tot_tut!A17</f>
-        <v>E[Y0]</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="str">
         <f>[1]tot_tut!B17</f>
@@ -1218,18 +1089,14 @@
       </c>
       <c r="D12" s="6" t="str">
         <f>[1]tot_tut!D17</f>
-        <v>56.6***</v>
+        <v>-35.8***</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>[1]tot_tut!E17</f>
-        <v>-35.8***</v>
-      </c>
-      <c r="F12" s="6" t="str">
-        <f>[1]tot_tut!F17</f>
         <v>-32.8***</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>[1]tot_tut!A18</f>
         <v/>
@@ -1244,44 +1111,36 @@
       </c>
       <c r="D13" s="6" t="str">
         <f>[1]tot_tut!D18</f>
-        <v>(1.65)</v>
+        <v>(1.84)</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>[1]tot_tut!E18</f>
-        <v>(1.84)</v>
-      </c>
-      <c r="F13" s="6" t="str">
-        <f>[1]tot_tut!F18</f>
         <v>(2.35)</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
         <f>[1]tot_tut!A20</f>
         <v>ToT-TuT</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>[1]tot_tut!B20</f>
-        <v>116.6</v>
+        <v>108.7</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>[1]tot_tut!C20</f>
-        <v>352.1</v>
+        <v>312.2</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>[1]tot_tut!D20</f>
-        <v>2.37</v>
+        <v>34.7</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>[1]tot_tut!E20</f>
-        <v>35.5</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f>[1]tot_tut!F20</f>
         <v>-36.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[1]tot_tut!A21</f>
         <v/>
@@ -1292,271 +1151,225 @@
       </c>
       <c r="C15" s="6" t="str">
         <f>[1]tot_tut!C21</f>
-        <v>(1132.7)</v>
+        <v>(1132.4)</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>[1]tot_tut!D21</f>
-        <v>(21.6)</v>
+        <v>(22.5)</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>[1]tot_tut!E21</f>
-        <v>(22.6)</v>
-      </c>
-      <c r="F15" s="6" t="str">
-        <f>[1]tot_tut!F21</f>
         <v>(30.6)</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>[1]tot_tut!A23</f>
+        <v>ASB</v>
       </c>
       <c r="B16" s="6" t="str">
-        <f>[2]asb_asl!B21</f>
-        <v>-130.2</v>
+        <f>[1]tot_tut!B23</f>
+        <v>-122.3*</v>
       </c>
       <c r="C16" s="6" t="str">
-        <f>[2]asb_asl!C21</f>
-        <v>-117.8</v>
+        <f>[1]tot_tut!C23</f>
+        <v>-77.9</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f>[2]asb_asl!D21</f>
-        <v>-2.23</v>
+        <f>[1]tot_tut!D23</f>
+        <v>-40.6*</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f>[2]asb_asl!E21</f>
-        <v>-41.4</v>
-      </c>
-      <c r="F16" s="6" t="str">
-        <f>[2]asb_asl!F21</f>
+        <f>[1]tot_tut!E23</f>
         <v>22.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!B22,")")</f>
-        <v>(70.1)</v>
+        <f>[1]tot_tut!B24</f>
+        <v>(70.5)</v>
       </c>
       <c r="C17" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!C22,")")</f>
-        <v>(1131.4)</v>
+        <f>[1]tot_tut!C24</f>
+        <v>(1127.5)</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!D22,")")</f>
-        <v>(21.3)</v>
+        <f>[1]tot_tut!D24</f>
+        <v>(22.2)</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!E22,")")</f>
-        <v>(21.8)</v>
-      </c>
-      <c r="F17" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!F22,")")</f>
-        <v>(29.8)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
+        <f>[1]tot_tut!E24</f>
+        <v>(30.1)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>[1]tot_tut!A26</f>
+        <v>ASL</v>
       </c>
       <c r="B18" s="6" t="str">
-        <f>[2]asb_asl!B23</f>
+        <f>[1]tot_tut!B26</f>
         <v>-13.6</v>
       </c>
       <c r="C18" s="6" t="str">
-        <f>[2]asb_asl!C23</f>
+        <f>[1]tot_tut!C26</f>
         <v>234.3</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f>[2]asb_asl!D23</f>
-        <v>0.14</v>
+        <f>[1]tot_tut!D26</f>
+        <v>-5.90</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f>[2]asb_asl!E23</f>
-        <v>-5.90</v>
-      </c>
-      <c r="F18" s="6" t="str">
-        <f>[2]asb_asl!F23</f>
-        <v>-13.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]tot_tut!E26</f>
+        <v>-13.4***</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!B24,")")</f>
-        <v>(19.6)</v>
+        <f>[1]tot_tut!B27</f>
+        <v>(15.9)</v>
       </c>
       <c r="C19" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!C24,")")</f>
-        <v>(240.5)</v>
+        <f>[1]tot_tut!C27</f>
+        <v>(154.4)</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!D24,")")</f>
-        <v>(5.63)</v>
+        <f>[1]tot_tut!D27</f>
+        <v>(4.29)</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!E24,")")</f>
-        <v>(5.61)</v>
-      </c>
-      <c r="F19" s="6" t="str">
-        <f>_xlfn.CONCAT("(",[2]asb_asl!F24,")")</f>
-        <v>(6.20)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]tot_tut!E27</f>
+        <v>(4.20)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f>[1]tot_tut!B23</f>
+        <f>[1]tot_tut!B29</f>
         <v>6304</v>
       </c>
       <c r="C21" s="7" t="str">
-        <f>[1]tot_tut!C23</f>
+        <f>[1]tot_tut!C29</f>
         <v>6304</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f>[1]tot_tut!D23</f>
+        <f>[1]tot_tut!D29</f>
         <v>6304</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>[1]tot_tut!E23</f>
+        <f>[1]tot_tut!E29</f>
         <v>6304</v>
       </c>
-      <c r="F21" s="7" t="str">
-        <f>[1]tot_tut!F23</f>
-        <v>6304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
-        <f>[1]tot_tut!A24</f>
+        <f>[1]tot_tut!A30</f>
         <v>Control Mean</v>
       </c>
       <c r="B22" s="6" t="str">
-        <f>[1]tot_tut!B24</f>
+        <f>[1]tot_tut!B30</f>
         <v>-183.5</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f>[1]tot_tut!C24</f>
+        <f>[1]tot_tut!C30</f>
         <v>-1851.0</v>
       </c>
       <c r="D22" s="6" t="str">
-        <f>[1]tot_tut!D24</f>
-        <v>43.3</v>
+        <f>[1]tot_tut!D30</f>
+        <v>-43.5</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f>[1]tot_tut!E24</f>
-        <v>-43.5</v>
-      </c>
-      <c r="F22" s="6" t="str">
-        <f>[1]tot_tut!F24</f>
+        <f>[1]tot_tut!E30</f>
         <v>-39.1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>[1]tot_tut!A25</f>
-        <v>H_0 : ATE-TuT=0</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="str">
-        <f>[1]tot_tut!B25</f>
-        <v>0.10</v>
+        <f>[1]tot_tut!B31</f>
+        <v>0.13</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f>[1]tot_tut!C25</f>
-        <v>0.76</v>
+        <f>[1]tot_tut!C31</f>
+        <v>0.78</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f>[1]tot_tut!D25</f>
-        <v>0.91</v>
+        <f>[1]tot_tut!D31</f>
+        <v>0.12</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f>[1]tot_tut!E25</f>
-        <v>0.11</v>
-      </c>
-      <c r="F23" s="6" t="str">
-        <f>[1]tot_tut!F25</f>
+        <f>[1]tot_tut!E31</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>[1]tot_tut!A26</f>
-        <v>H_0 : ATE-ToT=0</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
       </c>
       <c r="B24" s="6" t="str">
-        <f>[1]tot_tut!B26</f>
-        <v>0.10</v>
+        <f>[1]tot_tut!B32</f>
+        <v>0.13</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f>[1]tot_tut!C26</f>
-        <v>0.76</v>
+        <f>[1]tot_tut!C32</f>
+        <v>0.78</v>
       </c>
       <c r="D24" s="6" t="str">
-        <f>[1]tot_tut!D26</f>
-        <v>0.91</v>
+        <f>[1]tot_tut!D32</f>
+        <v>0.13</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f>[1]tot_tut!E26</f>
+        <f>[1]tot_tut!E32</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6" t="str">
+        <f>[1]tot_tut!B33</f>
+        <v>0.13</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>[1]tot_tut!C33</f>
+        <v>0.78</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f>[1]tot_tut!D33</f>
         <v>0.12</v>
       </c>
-      <c r="F24" s="6" t="str">
-        <f>[1]tot_tut!F26</f>
+      <c r="E25" s="6" t="str">
+        <f>[1]tot_tut!E33</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>[1]tot_tut!A27</f>
-        <v>H_0 : ToT-TuT=0</v>
-      </c>
-      <c r="B25" s="6" t="str">
-        <f>[1]tot_tut!B27</f>
-        <v>0.10</v>
-      </c>
-      <c r="C25" s="6" t="str">
-        <f>[1]tot_tut!C27</f>
-        <v>0.76</v>
-      </c>
-      <c r="D25" s="6" t="str">
-        <f>[1]tot_tut!D27</f>
-        <v>0.91</v>
-      </c>
-      <c r="E25" s="6" t="str">
-        <f>[1]tot_tut!E27</f>
-        <v>0.12</v>
-      </c>
-      <c r="F25" s="6" t="str">
-        <f>[1]tot_tut!F27</f>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="str">
-        <f>[1]tot_tut!A28</f>
-        <v>H_0 : ToT-TuT$\geq$ 0</v>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B26" s="5" t="str">
-        <f>[1]tot_tut!B28</f>
-        <v>0.051</v>
+        <f>[1]tot_tut!B34</f>
+        <v>0.063</v>
       </c>
       <c r="C26" s="5" t="str">
-        <f>[1]tot_tut!C28</f>
-        <v>0.38</v>
+        <f>[1]tot_tut!C34</f>
+        <v>0.39</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f>[1]tot_tut!D28</f>
-        <v>0.46</v>
+        <f>[1]tot_tut!D34</f>
+        <v>0.062</v>
       </c>
       <c r="E26" s="5" t="str">
-        <f>[1]tot_tut!E28</f>
-        <v>0.058</v>
-      </c>
-      <c r="F26" s="5" t="str">
-        <f>[1]tot_tut!F28</f>
+        <f>[1]tot_tut!E34</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE8A658-1C09-4158-A52E-C859C16CFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A82DF7-D817-4DF7-841E-FF3D62314947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="0" windowWidth="12030" windowHeight="11280" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
@@ -470,23 +470,6 @@
           </cell>
           <cell r="E29" t="str">
             <v>6304</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Control Mean</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>-183.5</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>-1851.0</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>-43.5</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>-39.1</v>
           </cell>
         </row>
         <row r="31">
@@ -840,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -848,22 +831,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254A23C4-4F24-410C-AB8B-7C80ABB413D1}">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="A2:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -878,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f>[1]tot_tut!A2</f>
         <v/>
@@ -900,7 +883,7 @@
         <v>(4)</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>[1]tot_tut!A5</f>
         <v>ATE</v>
@@ -922,7 +905,7 @@
         <v>6.34**</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>[1]tot_tut!A6</f>
         <v/>
@@ -944,7 +927,7 @@
         <v>(2.90)</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>[1]tot_tut!A8</f>
         <v>ToT</v>
@@ -966,7 +949,7 @@
         <v>-25.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>[1]tot_tut!A9</f>
         <v/>
@@ -988,7 +971,7 @@
         <v>(29.1)</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>[1]tot_tut!A11</f>
         <v>TuT</v>
@@ -1010,7 +993,7 @@
         <v>10.2***</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>[1]tot_tut!A12</f>
         <v/>
@@ -1032,7 +1015,7 @@
         <v>(2.90)</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1036,7 @@
         <v>-39.1***</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>[1]tot_tut!A15</f>
         <v/>
@@ -1075,7 +1058,7 @@
         <v>(1.70)</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1079,7 @@
         <v>-32.8***</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>[1]tot_tut!A18</f>
         <v/>
@@ -1118,7 +1101,7 @@
         <v>(2.35)</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>[1]tot_tut!A20</f>
         <v>ToT-TuT</v>
@@ -1140,7 +1123,7 @@
         <v>-36.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>[1]tot_tut!A21</f>
         <v/>
@@ -1162,7 +1145,7 @@
         <v>(30.6)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>[1]tot_tut!A23</f>
         <v>ASB</v>
@@ -1184,7 +1167,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>[1]tot_tut!B24</f>
         <v>(70.5)</v>
@@ -1202,7 +1185,7 @@
         <v>(30.1)</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>[1]tot_tut!A26</f>
         <v>ASL</v>
@@ -1224,7 +1207,7 @@
         <v>-13.4***</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>[1]tot_tut!B27</f>
         <v>(15.9)</v>
@@ -1242,7 +1225,7 @@
         <v>(4.20)</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,113 +1246,91 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="str">
-        <f>[1]tot_tut!A30</f>
-        <v>Control Mean</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
       </c>
       <c r="B22" s="6" t="str">
-        <f>[1]tot_tut!B30</f>
-        <v>-183.5</v>
-      </c>
-      <c r="C22" s="6" t="str">
-        <f>[1]tot_tut!C30</f>
-        <v>-1851.0</v>
-      </c>
-      <c r="D22" s="6" t="str">
-        <f>[1]tot_tut!D30</f>
-        <v>-43.5</v>
-      </c>
-      <c r="E22" s="6" t="str">
-        <f>[1]tot_tut!E30</f>
-        <v>-39.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="6" t="str">
         <f>[1]tot_tut!B31</f>
         <v>0.13</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C22" s="6" t="str">
         <f>[1]tot_tut!C31</f>
         <v>0.78</v>
       </c>
-      <c r="D23" s="6" t="str">
+      <c r="D22" s="6" t="str">
         <f>[1]tot_tut!D31</f>
         <v>0.12</v>
       </c>
-      <c r="E23" s="6" t="str">
+      <c r="E22" s="6" t="str">
         <f>[1]tot_tut!E31</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="6" t="str">
+      <c r="B23" s="6" t="str">
         <f>[1]tot_tut!B32</f>
         <v>0.13</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C23" s="6" t="str">
         <f>[1]tot_tut!C32</f>
         <v>0.78</v>
       </c>
-      <c r="D24" s="6" t="str">
+      <c r="D23" s="6" t="str">
         <f>[1]tot_tut!D32</f>
         <v>0.13</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E23" s="6" t="str">
         <f>[1]tot_tut!E32</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B24" s="6" t="str">
         <f>[1]tot_tut!B33</f>
         <v>0.13</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C24" s="6" t="str">
         <f>[1]tot_tut!C33</f>
         <v>0.78</v>
       </c>
-      <c r="D25" s="6" t="str">
+      <c r="D24" s="6" t="str">
         <f>[1]tot_tut!D33</f>
         <v>0.12</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E24" s="6" t="str">
         <f>[1]tot_tut!E33</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B25" s="5" t="str">
         <f>[1]tot_tut!B34</f>
         <v>0.063</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C25" s="5" t="str">
         <f>[1]tot_tut!C34</f>
         <v>0.39</v>
       </c>
-      <c r="D26" s="5" t="str">
+      <c r="D25" s="5" t="str">
         <f>[1]tot_tut!D34</f>
         <v>0.062</v>
       </c>
-      <c r="E26" s="5" t="str">
+      <c r="E25" s="5" t="str">
         <f>[1]tot_tut!E34</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A82DF7-D817-4DF7-841E-FF3D62314947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D166AE81-C0EF-4C71-AF09-B2961577606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
@@ -203,13 +203,13 @@
             <v>ATE</v>
           </cell>
           <cell r="B5" t="str">
-            <v>35.6***</v>
+            <v>35.2***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>389.4***</v>
+            <v>389.0***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>7.68***</v>
+            <v>7.62***</v>
           </cell>
           <cell r="E5" t="str">
             <v>6.34**</v>
@@ -220,7 +220,7 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(8.30)</v>
+            <v>(8.31)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(117.6)</v>
@@ -237,13 +237,13 @@
             <v>ToT</v>
           </cell>
           <cell r="B8" t="str">
-            <v>132.7*</v>
+            <v>122.0*</v>
           </cell>
           <cell r="C8" t="str">
-            <v>668.3</v>
+            <v>644.7</v>
           </cell>
           <cell r="D8" t="str">
-            <v>38.7*</v>
+            <v>37.4*</v>
           </cell>
           <cell r="E8" t="str">
             <v>-25.9</v>
@@ -254,13 +254,13 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(67.8)</v>
+            <v>(68.9)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(1085.4)</v>
+            <v>(1085.5)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(21.5)</v>
+            <v>(21.7)</v>
           </cell>
           <cell r="E9" t="str">
             <v>(29.1)</v>
@@ -271,13 +271,13 @@
             <v>TuT</v>
           </cell>
           <cell r="B11" t="str">
-            <v>24.0***</v>
+            <v>24.9***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>356.1***</v>
+            <v>358.5***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>3.98*</v>
+            <v>4.07*</v>
           </cell>
           <cell r="E11" t="str">
             <v>10.2***</v>
@@ -288,13 +288,13 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(8.20)</v>
+            <v>(8.31)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(107.8)</v>
+            <v>(107.7)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(2.40)</v>
+            <v>(2.41)</v>
           </cell>
           <cell r="E12" t="str">
             <v>(2.90)</v>
@@ -302,16 +302,16 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>-183.5***</v>
+            <v>-183.1***</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-1851.0***</v>
+            <v>-1850.6***</v>
           </cell>
           <cell r="D14" t="str">
-            <v>-43.5***</v>
+            <v>56.6***</v>
           </cell>
           <cell r="E14" t="str">
-            <v>-39.1***</v>
+            <v>60.9***</v>
           </cell>
         </row>
         <row r="15">
@@ -339,10 +339,10 @@
             <v>-1461.6***</v>
           </cell>
           <cell r="D17" t="str">
-            <v>-35.8***</v>
+            <v>64.2***</v>
           </cell>
           <cell r="E17" t="str">
-            <v>-32.8***</v>
+            <v>67.2***</v>
           </cell>
         </row>
         <row r="18">
@@ -350,10 +350,10 @@
             <v/>
           </cell>
           <cell r="B18" t="str">
-            <v>(5.82)</v>
+            <v>(5.83)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(94.9)</v>
+            <v>(95.0)</v>
           </cell>
           <cell r="D18" t="str">
             <v>(1.84)</v>
@@ -367,13 +367,13 @@
             <v>ToT-TuT</v>
           </cell>
           <cell r="B20" t="str">
-            <v>108.7</v>
+            <v>97.1</v>
           </cell>
           <cell r="C20" t="str">
-            <v>312.2</v>
+            <v>286.2</v>
           </cell>
           <cell r="D20" t="str">
-            <v>34.7</v>
+            <v>33.4</v>
           </cell>
           <cell r="E20" t="str">
             <v>-36.1</v>
@@ -384,13 +384,13 @@
             <v/>
           </cell>
           <cell r="B21" t="str">
-            <v>(70.9)</v>
+            <v>(72.3)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(1132.4)</v>
+            <v>(1132.5)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(22.5)</v>
+            <v>(22.6)</v>
           </cell>
           <cell r="E21" t="str">
             <v>(30.6)</v>
@@ -401,13 +401,13 @@
             <v>ASB</v>
           </cell>
           <cell r="B23" t="str">
-            <v>-122.3*</v>
+            <v>-110.7</v>
           </cell>
           <cell r="C23" t="str">
-            <v>-77.9</v>
+            <v>-51.9</v>
           </cell>
           <cell r="D23" t="str">
-            <v>-40.6*</v>
+            <v>-39.3*</v>
           </cell>
           <cell r="E23" t="str">
             <v>22.7</v>
@@ -415,13 +415,13 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(70.5)</v>
+            <v>(71.6)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(1127.5)</v>
+            <v>(1126.5)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>(22.2)</v>
+            <v>(22.3)</v>
           </cell>
           <cell r="E24" t="str">
             <v>(30.1)</v>
@@ -474,13 +474,13 @@
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>0.13</v>
+            <v>0.18</v>
           </cell>
           <cell r="C31" t="str">
-            <v>0.78</v>
+            <v>0.80</v>
           </cell>
           <cell r="D31" t="str">
-            <v>0.12</v>
+            <v>0.14</v>
           </cell>
           <cell r="E31" t="str">
             <v>0.23</v>
@@ -488,13 +488,13 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>0.13</v>
+            <v>0.18</v>
           </cell>
           <cell r="C32" t="str">
-            <v>0.78</v>
+            <v>0.80</v>
           </cell>
           <cell r="D32" t="str">
-            <v>0.13</v>
+            <v>0.14</v>
           </cell>
           <cell r="E32" t="str">
             <v>0.24</v>
@@ -502,13 +502,13 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>0.13</v>
+            <v>0.18</v>
           </cell>
           <cell r="C33" t="str">
-            <v>0.78</v>
+            <v>0.80</v>
           </cell>
           <cell r="D33" t="str">
-            <v>0.12</v>
+            <v>0.14</v>
           </cell>
           <cell r="E33" t="str">
             <v>0.24</v>
@@ -516,13 +516,13 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>0.063</v>
+            <v>0.090</v>
           </cell>
           <cell r="C34" t="str">
-            <v>0.39</v>
+            <v>0.40</v>
           </cell>
           <cell r="D34" t="str">
-            <v>0.062</v>
+            <v>0.071</v>
           </cell>
           <cell r="E34" t="str">
             <v>0.88</v>
@@ -837,16 +837,16 @@
       <selection activeCell="E25" sqref="A2:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="str">
         <f>[1]tot_tut!A2</f>
         <v/>
@@ -883,36 +883,36 @@
         <v>(4)</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>[1]tot_tut!A5</f>
         <v>ATE</v>
       </c>
       <c r="B4" s="6" t="str">
         <f>[1]tot_tut!B5</f>
-        <v>35.6***</v>
+        <v>35.2***</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>[1]tot_tut!C5</f>
-        <v>389.4***</v>
+        <v>389.0***</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>[1]tot_tut!D5</f>
-        <v>7.68***</v>
+        <v>7.62***</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>[1]tot_tut!E5</f>
         <v>6.34**</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>[1]tot_tut!A6</f>
         <v/>
       </c>
       <c r="B5" s="6" t="str">
         <f>[1]tot_tut!B6</f>
-        <v>(8.30)</v>
+        <v>(8.31)</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>[1]tot_tut!C6</f>
@@ -927,116 +927,116 @@
         <v>(2.90)</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]tot_tut!A8</f>
         <v>ToT</v>
       </c>
       <c r="B6" s="6" t="str">
         <f>[1]tot_tut!B8</f>
-        <v>132.7*</v>
+        <v>122.0*</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>[1]tot_tut!C8</f>
-        <v>668.3</v>
+        <v>644.7</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>[1]tot_tut!D8</f>
-        <v>38.7*</v>
+        <v>37.4*</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>[1]tot_tut!E8</f>
         <v>-25.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>[1]tot_tut!A9</f>
         <v/>
       </c>
       <c r="B7" s="6" t="str">
         <f>[1]tot_tut!B9</f>
-        <v>(67.8)</v>
+        <v>(68.9)</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>[1]tot_tut!C9</f>
-        <v>(1085.4)</v>
+        <v>(1085.5)</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>[1]tot_tut!D9</f>
-        <v>(21.5)</v>
+        <v>(21.7)</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>[1]tot_tut!E9</f>
         <v>(29.1)</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]tot_tut!A11</f>
         <v>TuT</v>
       </c>
       <c r="B8" s="6" t="str">
         <f>[1]tot_tut!B11</f>
-        <v>24.0***</v>
+        <v>24.9***</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>[1]tot_tut!C11</f>
-        <v>356.1***</v>
+        <v>358.5***</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>[1]tot_tut!D11</f>
-        <v>3.98*</v>
+        <v>4.07*</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>[1]tot_tut!E11</f>
         <v>10.2***</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]tot_tut!A12</f>
         <v/>
       </c>
       <c r="B9" s="6" t="str">
         <f>[1]tot_tut!B12</f>
-        <v>(8.20)</v>
+        <v>(8.31)</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>[1]tot_tut!C12</f>
-        <v>(107.8)</v>
+        <v>(107.7)</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>[1]tot_tut!D12</f>
-        <v>(2.40)</v>
+        <v>(2.41)</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>[1]tot_tut!E12</f>
         <v>(2.90)</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!B14</f>
-        <v>-183.5***</v>
+        <v>-183.1***</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>[1]tot_tut!C14</f>
-        <v>-1851.0***</v>
+        <v>-1850.6***</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>[1]tot_tut!D14</f>
-        <v>-43.5***</v>
+        <v>56.6***</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>[1]tot_tut!E14</f>
-        <v>-39.1***</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60.9***</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]tot_tut!A15</f>
         <v/>
@@ -1058,7 +1058,7 @@
         <v>(1.70)</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1072,25 +1072,25 @@
       </c>
       <c r="D12" s="6" t="str">
         <f>[1]tot_tut!D17</f>
-        <v>-35.8***</v>
+        <v>64.2***</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>[1]tot_tut!E17</f>
-        <v>-32.8***</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67.2***</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>[1]tot_tut!A18</f>
         <v/>
       </c>
       <c r="B13" s="6" t="str">
         <f>[1]tot_tut!B18</f>
-        <v>(5.82)</v>
+        <v>(5.83)</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>[1]tot_tut!C18</f>
-        <v>(94.9)</v>
+        <v>(95.0)</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>[1]tot_tut!D18</f>
@@ -1101,91 +1101,91 @@
         <v>(2.35)</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
         <f>[1]tot_tut!A20</f>
         <v>ToT-TuT</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>[1]tot_tut!B20</f>
-        <v>108.7</v>
+        <v>97.1</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>[1]tot_tut!C20</f>
-        <v>312.2</v>
+        <v>286.2</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>[1]tot_tut!D20</f>
-        <v>34.7</v>
+        <v>33.4</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>[1]tot_tut!E20</f>
         <v>-36.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[1]tot_tut!A21</f>
         <v/>
       </c>
       <c r="B15" s="6" t="str">
         <f>[1]tot_tut!B21</f>
-        <v>(70.9)</v>
+        <v>(72.3)</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>[1]tot_tut!C21</f>
-        <v>(1132.4)</v>
+        <v>(1132.5)</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>[1]tot_tut!D21</f>
-        <v>(22.5)</v>
+        <v>(22.6)</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>[1]tot_tut!E21</f>
         <v>(30.6)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>[1]tot_tut!A23</f>
         <v>ASB</v>
       </c>
       <c r="B16" s="6" t="str">
         <f>[1]tot_tut!B23</f>
-        <v>-122.3*</v>
+        <v>-110.7</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>[1]tot_tut!C23</f>
-        <v>-77.9</v>
+        <v>-51.9</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>[1]tot_tut!D23</f>
-        <v>-40.6*</v>
+        <v>-39.3*</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>[1]tot_tut!E23</f>
         <v>22.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="str">
         <f>[1]tot_tut!B24</f>
-        <v>(70.5)</v>
+        <v>(71.6)</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>[1]tot_tut!C24</f>
-        <v>(1127.5)</v>
+        <v>(1126.5)</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>[1]tot_tut!D24</f>
-        <v>(22.2)</v>
+        <v>(22.3)</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>[1]tot_tut!E24</f>
         <v>(30.1)</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[1]tot_tut!A26</f>
         <v>ASL</v>
@@ -1207,7 +1207,7 @@
         <v>-13.4***</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="str">
         <f>[1]tot_tut!B27</f>
         <v>(15.9)</v>
@@ -1225,7 +1225,7 @@
         <v>(4.20)</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,91 +1246,91 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="str">
         <f>[1]tot_tut!B31</f>
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>[1]tot_tut!C31</f>
-        <v>0.78</v>
+        <v>0.80</v>
       </c>
       <c r="D22" s="6" t="str">
         <f>[1]tot_tut!D31</f>
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E22" s="6" t="str">
         <f>[1]tot_tut!E31</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6" t="str">
         <f>[1]tot_tut!B32</f>
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>[1]tot_tut!C32</f>
-        <v>0.78</v>
+        <v>0.80</v>
       </c>
       <c r="D23" s="6" t="str">
         <f>[1]tot_tut!D32</f>
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>[1]tot_tut!E32</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="6" t="str">
         <f>[1]tot_tut!B33</f>
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>[1]tot_tut!C33</f>
-        <v>0.78</v>
+        <v>0.80</v>
       </c>
       <c r="D24" s="6" t="str">
         <f>[1]tot_tut!D33</f>
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E24" s="6" t="str">
         <f>[1]tot_tut!E33</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="5" t="str">
         <f>[1]tot_tut!B34</f>
-        <v>0.063</v>
+        <v>0.090</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>[1]tot_tut!C34</f>
-        <v>0.39</v>
+        <v>0.40</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>[1]tot_tut!D34</f>
-        <v>0.062</v>
+        <v>0.071</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>[1]tot_tut!E34</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D166AE81-C0EF-4C71-AF09-B2961577606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B068638-B131-470C-B66F-1C0D016A88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
@@ -203,13 +203,13 @@
             <v>ATE</v>
           </cell>
           <cell r="B5" t="str">
-            <v>35.2***</v>
+            <v>9.25***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>389.0***</v>
+            <v>181.9***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>7.62***</v>
+            <v>7.68***</v>
           </cell>
           <cell r="E5" t="str">
             <v>6.34**</v>
@@ -220,10 +220,10 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(8.31)</v>
+            <v>(2.04)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(117.6)</v>
+            <v>(50.8)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(2.50)</v>
@@ -237,13 +237,13 @@
             <v>ToT</v>
           </cell>
           <cell r="B8" t="str">
-            <v>122.0*</v>
+            <v>0.060</v>
           </cell>
           <cell r="C8" t="str">
-            <v>644.7</v>
+            <v>120.7</v>
           </cell>
           <cell r="D8" t="str">
-            <v>37.4*</v>
+            <v>38.0*</v>
           </cell>
           <cell r="E8" t="str">
             <v>-25.9</v>
@@ -254,10 +254,10 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(68.9)</v>
+            <v>(21.1)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(1085.5)</v>
+            <v>(528.6)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(21.7)</v>
@@ -271,10 +271,10 @@
             <v>TuT</v>
           </cell>
           <cell r="B11" t="str">
-            <v>24.9***</v>
+            <v>10.3***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>358.5***</v>
+            <v>189.1***</v>
           </cell>
           <cell r="D11" t="str">
             <v>4.07*</v>
@@ -288,13 +288,13 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(8.31)</v>
+            <v>(2.46)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(107.7)</v>
+            <v>(50.9)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(2.41)</v>
+            <v>(2.42)</v>
           </cell>
           <cell r="E12" t="str">
             <v>(2.90)</v>
@@ -302,13 +302,13 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>-183.1***</v>
+            <v>-56.6***</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-1850.6***</v>
+            <v>-941.3***</v>
           </cell>
           <cell r="D14" t="str">
-            <v>56.6***</v>
+            <v>56.5***</v>
           </cell>
           <cell r="E14" t="str">
             <v>60.9***</v>
@@ -319,10 +319,10 @@
             <v/>
           </cell>
           <cell r="B15" t="str">
-            <v>(5.92)</v>
+            <v>(1.42)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>(69.4)</v>
+            <v>(27.3)</v>
           </cell>
           <cell r="D15" t="str">
             <v>(1.69)</v>
@@ -333,10 +333,10 @@
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>-147.9***</v>
+            <v>-47.4***</v>
           </cell>
           <cell r="C17" t="str">
-            <v>-1461.6***</v>
+            <v>-759.4***</v>
           </cell>
           <cell r="D17" t="str">
             <v>64.2***</v>
@@ -350,13 +350,13 @@
             <v/>
           </cell>
           <cell r="B18" t="str">
-            <v>(5.83)</v>
+            <v>(1.46)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(95.0)</v>
+            <v>(42.9)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(1.84)</v>
+            <v>(1.83)</v>
           </cell>
           <cell r="E18" t="str">
             <v>(2.35)</v>
@@ -367,13 +367,13 @@
             <v>ToT-TuT</v>
           </cell>
           <cell r="B20" t="str">
-            <v>97.1</v>
+            <v>-10.3</v>
           </cell>
           <cell r="C20" t="str">
-            <v>286.2</v>
+            <v>-68.5</v>
           </cell>
           <cell r="D20" t="str">
-            <v>33.4</v>
+            <v>33.9</v>
           </cell>
           <cell r="E20" t="str">
             <v>-36.1</v>
@@ -384,10 +384,10 @@
             <v/>
           </cell>
           <cell r="B21" t="str">
-            <v>(72.3)</v>
+            <v>(22.7)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(1132.5)</v>
+            <v>(556.6)</v>
           </cell>
           <cell r="D21" t="str">
             <v>(22.6)</v>
@@ -401,13 +401,13 @@
             <v>ASB</v>
           </cell>
           <cell r="B23" t="str">
-            <v>-110.7</v>
+            <v>14.9</v>
           </cell>
           <cell r="C23" t="str">
-            <v>-51.9</v>
+            <v>280.3</v>
           </cell>
           <cell r="D23" t="str">
-            <v>-39.3*</v>
+            <v>-39.8*</v>
           </cell>
           <cell r="E23" t="str">
             <v>22.7</v>
@@ -415,10 +415,10 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(71.6)</v>
+            <v>(22.1)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(1126.5)</v>
+            <v>(551.6)</v>
           </cell>
           <cell r="D24" t="str">
             <v>(22.3)</v>
@@ -432,10 +432,10 @@
             <v>ASL</v>
           </cell>
           <cell r="B26" t="str">
-            <v>-13.6</v>
+            <v>4.58</v>
           </cell>
           <cell r="C26" t="str">
-            <v>234.3</v>
+            <v>211.9***</v>
           </cell>
           <cell r="D26" t="str">
             <v>-5.90</v>
@@ -446,10 +446,10 @@
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>(15.9)</v>
+            <v>(3.55)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(154.4)</v>
+            <v>(59.5)</v>
           </cell>
           <cell r="D27" t="str">
             <v>(4.29)</v>
@@ -474,13 +474,13 @@
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>0.18</v>
+            <v>0.65</v>
           </cell>
           <cell r="C31" t="str">
-            <v>0.80</v>
+            <v>0.90</v>
           </cell>
           <cell r="D31" t="str">
-            <v>0.14</v>
+            <v>0.13</v>
           </cell>
           <cell r="E31" t="str">
             <v>0.23</v>
@@ -488,10 +488,10 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>0.18</v>
+            <v>0.65</v>
           </cell>
           <cell r="C32" t="str">
-            <v>0.80</v>
+            <v>0.90</v>
           </cell>
           <cell r="D32" t="str">
             <v>0.14</v>
@@ -502,10 +502,10 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>0.18</v>
+            <v>0.65</v>
           </cell>
           <cell r="C33" t="str">
-            <v>0.80</v>
+            <v>0.90</v>
           </cell>
           <cell r="D33" t="str">
             <v>0.14</v>
@@ -516,13 +516,13 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>0.090</v>
+            <v>0.67</v>
           </cell>
           <cell r="C34" t="str">
-            <v>0.40</v>
+            <v>0.55</v>
           </cell>
           <cell r="D34" t="str">
-            <v>0.071</v>
+            <v>0.068</v>
           </cell>
           <cell r="E34" t="str">
             <v>0.88</v>
@@ -890,15 +890,15 @@
       </c>
       <c r="B4" s="6" t="str">
         <f>[1]tot_tut!B5</f>
-        <v>35.2***</v>
+        <v>9.25***</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>[1]tot_tut!C5</f>
-        <v>389.0***</v>
+        <v>181.9***</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>[1]tot_tut!D5</f>
-        <v>7.62***</v>
+        <v>7.68***</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>[1]tot_tut!E5</f>
@@ -912,11 +912,11 @@
       </c>
       <c r="B5" s="6" t="str">
         <f>[1]tot_tut!B6</f>
-        <v>(8.31)</v>
+        <v>(2.04)</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>[1]tot_tut!C6</f>
-        <v>(117.6)</v>
+        <v>(50.8)</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>[1]tot_tut!D6</f>
@@ -934,15 +934,15 @@
       </c>
       <c r="B6" s="6" t="str">
         <f>[1]tot_tut!B8</f>
-        <v>122.0*</v>
+        <v>0.060</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>[1]tot_tut!C8</f>
-        <v>644.7</v>
+        <v>120.7</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>[1]tot_tut!D8</f>
-        <v>37.4*</v>
+        <v>38.0*</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>[1]tot_tut!E8</f>
@@ -956,11 +956,11 @@
       </c>
       <c r="B7" s="6" t="str">
         <f>[1]tot_tut!B9</f>
-        <v>(68.9)</v>
+        <v>(21.1)</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>[1]tot_tut!C9</f>
-        <v>(1085.5)</v>
+        <v>(528.6)</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>[1]tot_tut!D9</f>
@@ -978,11 +978,11 @@
       </c>
       <c r="B8" s="6" t="str">
         <f>[1]tot_tut!B11</f>
-        <v>24.9***</v>
+        <v>10.3***</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>[1]tot_tut!C11</f>
-        <v>358.5***</v>
+        <v>189.1***</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>[1]tot_tut!D11</f>
@@ -1000,15 +1000,15 @@
       </c>
       <c r="B9" s="6" t="str">
         <f>[1]tot_tut!B12</f>
-        <v>(8.31)</v>
+        <v>(2.46)</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>[1]tot_tut!C12</f>
-        <v>(107.7)</v>
+        <v>(50.9)</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>[1]tot_tut!D12</f>
-        <v>(2.41)</v>
+        <v>(2.42)</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>[1]tot_tut!E12</f>
@@ -1021,15 +1021,15 @@
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!B14</f>
-        <v>-183.1***</v>
+        <v>-56.6***</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>[1]tot_tut!C14</f>
-        <v>-1850.6***</v>
+        <v>-941.3***</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>[1]tot_tut!D14</f>
-        <v>56.6***</v>
+        <v>56.5***</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>[1]tot_tut!E14</f>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B11" s="6" t="str">
         <f>[1]tot_tut!B15</f>
-        <v>(5.92)</v>
+        <v>(1.42)</v>
       </c>
       <c r="C11" s="6" t="str">
         <f>[1]tot_tut!C15</f>
-        <v>(69.4)</v>
+        <v>(27.3)</v>
       </c>
       <c r="D11" s="6" t="str">
         <f>[1]tot_tut!D15</f>
@@ -1064,11 +1064,11 @@
       </c>
       <c r="B12" s="6" t="str">
         <f>[1]tot_tut!B17</f>
-        <v>-147.9***</v>
+        <v>-47.4***</v>
       </c>
       <c r="C12" s="6" t="str">
         <f>[1]tot_tut!C17</f>
-        <v>-1461.6***</v>
+        <v>-759.4***</v>
       </c>
       <c r="D12" s="6" t="str">
         <f>[1]tot_tut!D17</f>
@@ -1086,15 +1086,15 @@
       </c>
       <c r="B13" s="6" t="str">
         <f>[1]tot_tut!B18</f>
-        <v>(5.83)</v>
+        <v>(1.46)</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>[1]tot_tut!C18</f>
-        <v>(95.0)</v>
+        <v>(42.9)</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>[1]tot_tut!D18</f>
-        <v>(1.84)</v>
+        <v>(1.83)</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>[1]tot_tut!E18</f>
@@ -1108,15 +1108,15 @@
       </c>
       <c r="B14" s="7" t="str">
         <f>[1]tot_tut!B20</f>
-        <v>97.1</v>
+        <v>-10.3</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>[1]tot_tut!C20</f>
-        <v>286.2</v>
+        <v>-68.5</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>[1]tot_tut!D20</f>
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>[1]tot_tut!E20</f>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="B15" s="6" t="str">
         <f>[1]tot_tut!B21</f>
-        <v>(72.3)</v>
+        <v>(22.7)</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>[1]tot_tut!C21</f>
-        <v>(1132.5)</v>
+        <v>(556.6)</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>[1]tot_tut!D21</f>
@@ -1152,15 +1152,15 @@
       </c>
       <c r="B16" s="6" t="str">
         <f>[1]tot_tut!B23</f>
-        <v>-110.7</v>
+        <v>14.9</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>[1]tot_tut!C23</f>
-        <v>-51.9</v>
+        <v>280.3</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>[1]tot_tut!D23</f>
-        <v>-39.3*</v>
+        <v>-39.8*</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>[1]tot_tut!E23</f>
@@ -1170,11 +1170,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="str">
         <f>[1]tot_tut!B24</f>
-        <v>(71.6)</v>
+        <v>(22.1)</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>[1]tot_tut!C24</f>
-        <v>(1126.5)</v>
+        <v>(551.6)</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>[1]tot_tut!D24</f>
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B18" s="6" t="str">
         <f>[1]tot_tut!B26</f>
-        <v>-13.6</v>
+        <v>4.58</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>[1]tot_tut!C26</f>
-        <v>234.3</v>
+        <v>211.9***</v>
       </c>
       <c r="D18" s="6" t="str">
         <f>[1]tot_tut!D26</f>
@@ -1210,11 +1210,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="str">
         <f>[1]tot_tut!B27</f>
-        <v>(15.9)</v>
+        <v>(3.55)</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>[1]tot_tut!C27</f>
-        <v>(154.4)</v>
+        <v>(59.5)</v>
       </c>
       <c r="D19" s="6" t="str">
         <f>[1]tot_tut!D27</f>
@@ -1252,15 +1252,15 @@
       </c>
       <c r="B22" s="6" t="str">
         <f>[1]tot_tut!B31</f>
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>[1]tot_tut!C31</f>
-        <v>0.80</v>
+        <v>0.90</v>
       </c>
       <c r="D22" s="6" t="str">
         <f>[1]tot_tut!D31</f>
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E22" s="6" t="str">
         <f>[1]tot_tut!E31</f>
@@ -1273,11 +1273,11 @@
       </c>
       <c r="B23" s="6" t="str">
         <f>[1]tot_tut!B32</f>
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>[1]tot_tut!C32</f>
-        <v>0.80</v>
+        <v>0.90</v>
       </c>
       <c r="D23" s="6" t="str">
         <f>[1]tot_tut!D32</f>
@@ -1294,11 +1294,11 @@
       </c>
       <c r="B24" s="6" t="str">
         <f>[1]tot_tut!B33</f>
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>[1]tot_tut!C33</f>
-        <v>0.80</v>
+        <v>0.90</v>
       </c>
       <c r="D24" s="6" t="str">
         <f>[1]tot_tut!D33</f>
@@ -1315,15 +1315,15 @@
       </c>
       <c r="B25" s="5" t="str">
         <f>[1]tot_tut!B34</f>
-        <v>0.090</v>
+        <v>0.67</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>[1]tot_tut!C34</f>
-        <v>0.40</v>
+        <v>0.55</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>[1]tot_tut!D34</f>
-        <v>0.071</v>
+        <v>0.068</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>[1]tot_tut!E34</f>

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B068638-B131-470C-B66F-1C0D016A88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B705E10E-D250-4857-8189-20011B294C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="-21555" yWindow="-15060" windowWidth="14400" windowHeight="8175" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
@@ -203,13 +203,13 @@
             <v>ATE</v>
           </cell>
           <cell r="B5" t="str">
-            <v>9.25***</v>
+            <v>9.17***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>181.9***</v>
+            <v>181.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>7.68***</v>
+            <v>7.62***</v>
           </cell>
           <cell r="E5" t="str">
             <v>6.34**</v>
@@ -223,7 +223,7 @@
             <v>(2.04)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(50.8)</v>
+            <v>(50.9)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(2.50)</v>
@@ -237,13 +237,13 @@
             <v>ToT</v>
           </cell>
           <cell r="B8" t="str">
-            <v>0.060</v>
+            <v>-0.29</v>
           </cell>
           <cell r="C8" t="str">
-            <v>120.7</v>
+            <v>136.1</v>
           </cell>
           <cell r="D8" t="str">
-            <v>38.0*</v>
+            <v>37.4*</v>
           </cell>
           <cell r="E8" t="str">
             <v>-25.9</v>
@@ -254,13 +254,13 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(21.1)</v>
+            <v>(21.0)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(528.6)</v>
+            <v>(527.1)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(21.7)</v>
+            <v>(21.6)</v>
           </cell>
           <cell r="E9" t="str">
             <v>(29.1)</v>
@@ -274,7 +274,7 @@
             <v>10.3***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>189.1***</v>
+            <v>187.1***</v>
           </cell>
           <cell r="D11" t="str">
             <v>4.07*</v>
@@ -288,13 +288,13 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(2.46)</v>
+            <v>(2.44)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(50.9)</v>
+            <v>(50.7)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(2.42)</v>
+            <v>(2.41)</v>
           </cell>
           <cell r="E12" t="str">
             <v>(2.90)</v>
@@ -305,10 +305,10 @@
             <v>-56.6***</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-941.3***</v>
+            <v>-941.1***</v>
           </cell>
           <cell r="D14" t="str">
-            <v>56.5***</v>
+            <v>56.6***</v>
           </cell>
           <cell r="E14" t="str">
             <v>60.9***</v>
@@ -350,13 +350,13 @@
             <v/>
           </cell>
           <cell r="B18" t="str">
-            <v>(1.46)</v>
+            <v>(1.47)</v>
           </cell>
           <cell r="C18" t="str">
             <v>(42.9)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(1.83)</v>
+            <v>(1.84)</v>
           </cell>
           <cell r="E18" t="str">
             <v>(2.35)</v>
@@ -367,13 +367,13 @@
             <v>ToT-TuT</v>
           </cell>
           <cell r="B20" t="str">
-            <v>-10.3</v>
+            <v>-10.6</v>
           </cell>
           <cell r="C20" t="str">
-            <v>-68.5</v>
+            <v>-51.0</v>
           </cell>
           <cell r="D20" t="str">
-            <v>33.9</v>
+            <v>33.4</v>
           </cell>
           <cell r="E20" t="str">
             <v>-36.1</v>
@@ -384,10 +384,10 @@
             <v/>
           </cell>
           <cell r="B21" t="str">
-            <v>(22.7)</v>
+            <v>(22.5)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(556.6)</v>
+            <v>(554.9)</v>
           </cell>
           <cell r="D21" t="str">
             <v>(22.6)</v>
@@ -401,13 +401,13 @@
             <v>ASB</v>
           </cell>
           <cell r="B23" t="str">
-            <v>14.9</v>
+            <v>15.2</v>
           </cell>
           <cell r="C23" t="str">
-            <v>280.3</v>
+            <v>262.9</v>
           </cell>
           <cell r="D23" t="str">
-            <v>-39.8*</v>
+            <v>-39.3*</v>
           </cell>
           <cell r="E23" t="str">
             <v>22.7</v>
@@ -415,10 +415,10 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(22.1)</v>
+            <v>(22.0)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(551.6)</v>
+            <v>(551.3)</v>
           </cell>
           <cell r="D24" t="str">
             <v>(22.3)</v>
@@ -474,13 +474,13 @@
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>0.65</v>
+            <v>0.63</v>
           </cell>
           <cell r="C31" t="str">
-            <v>0.90</v>
+            <v>0.93</v>
           </cell>
           <cell r="D31" t="str">
-            <v>0.13</v>
+            <v>0.14</v>
           </cell>
           <cell r="E31" t="str">
             <v>0.23</v>
@@ -488,10 +488,10 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>0.65</v>
+            <v>0.64</v>
           </cell>
           <cell r="C32" t="str">
-            <v>0.90</v>
+            <v>0.93</v>
           </cell>
           <cell r="D32" t="str">
             <v>0.14</v>
@@ -502,10 +502,10 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>0.65</v>
+            <v>0.64</v>
           </cell>
           <cell r="C33" t="str">
-            <v>0.90</v>
+            <v>0.93</v>
           </cell>
           <cell r="D33" t="str">
             <v>0.14</v>
@@ -516,13 +516,13 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>0.67</v>
+            <v>0.68</v>
           </cell>
           <cell r="C34" t="str">
-            <v>0.55</v>
+            <v>0.54</v>
           </cell>
           <cell r="D34" t="str">
-            <v>0.068</v>
+            <v>0.070</v>
           </cell>
           <cell r="E34" t="str">
             <v>0.88</v>
@@ -890,15 +890,15 @@
       </c>
       <c r="B4" s="6" t="str">
         <f>[1]tot_tut!B5</f>
-        <v>9.25***</v>
+        <v>9.17***</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>[1]tot_tut!C5</f>
-        <v>181.9***</v>
+        <v>181.7***</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>[1]tot_tut!D5</f>
-        <v>7.68***</v>
+        <v>7.62***</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>[1]tot_tut!E5</f>
@@ -916,7 +916,7 @@
       </c>
       <c r="C5" s="6" t="str">
         <f>[1]tot_tut!C6</f>
-        <v>(50.8)</v>
+        <v>(50.9)</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>[1]tot_tut!D6</f>
@@ -934,15 +934,15 @@
       </c>
       <c r="B6" s="6" t="str">
         <f>[1]tot_tut!B8</f>
-        <v>0.060</v>
+        <v>-0.29</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>[1]tot_tut!C8</f>
-        <v>120.7</v>
+        <v>136.1</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>[1]tot_tut!D8</f>
-        <v>38.0*</v>
+        <v>37.4*</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>[1]tot_tut!E8</f>
@@ -956,15 +956,15 @@
       </c>
       <c r="B7" s="6" t="str">
         <f>[1]tot_tut!B9</f>
-        <v>(21.1)</v>
+        <v>(21.0)</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>[1]tot_tut!C9</f>
-        <v>(528.6)</v>
+        <v>(527.1)</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>[1]tot_tut!D9</f>
-        <v>(21.7)</v>
+        <v>(21.6)</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>[1]tot_tut!E9</f>
@@ -982,7 +982,7 @@
       </c>
       <c r="C8" s="6" t="str">
         <f>[1]tot_tut!C11</f>
-        <v>189.1***</v>
+        <v>187.1***</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>[1]tot_tut!D11</f>
@@ -1000,15 +1000,15 @@
       </c>
       <c r="B9" s="6" t="str">
         <f>[1]tot_tut!B12</f>
-        <v>(2.46)</v>
+        <v>(2.44)</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>[1]tot_tut!C12</f>
-        <v>(50.9)</v>
+        <v>(50.7)</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>[1]tot_tut!D12</f>
-        <v>(2.42)</v>
+        <v>(2.41)</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>[1]tot_tut!E12</f>
@@ -1025,11 +1025,11 @@
       </c>
       <c r="C10" s="6" t="str">
         <f>[1]tot_tut!C14</f>
-        <v>-941.3***</v>
+        <v>-941.1***</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>[1]tot_tut!D14</f>
-        <v>56.5***</v>
+        <v>56.6***</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>[1]tot_tut!E14</f>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B13" s="6" t="str">
         <f>[1]tot_tut!B18</f>
-        <v>(1.46)</v>
+        <v>(1.47)</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>[1]tot_tut!C18</f>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D13" s="6" t="str">
         <f>[1]tot_tut!D18</f>
-        <v>(1.83)</v>
+        <v>(1.84)</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>[1]tot_tut!E18</f>
@@ -1108,15 +1108,15 @@
       </c>
       <c r="B14" s="7" t="str">
         <f>[1]tot_tut!B20</f>
-        <v>-10.3</v>
+        <v>-10.6</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>[1]tot_tut!C20</f>
-        <v>-68.5</v>
+        <v>-51.0</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>[1]tot_tut!D20</f>
-        <v>33.9</v>
+        <v>33.4</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>[1]tot_tut!E20</f>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="B15" s="6" t="str">
         <f>[1]tot_tut!B21</f>
-        <v>(22.7)</v>
+        <v>(22.5)</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>[1]tot_tut!C21</f>
-        <v>(556.6)</v>
+        <v>(554.9)</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>[1]tot_tut!D21</f>
@@ -1152,15 +1152,15 @@
       </c>
       <c r="B16" s="6" t="str">
         <f>[1]tot_tut!B23</f>
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>[1]tot_tut!C23</f>
-        <v>280.3</v>
+        <v>262.9</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>[1]tot_tut!D23</f>
-        <v>-39.8*</v>
+        <v>-39.3*</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>[1]tot_tut!E23</f>
@@ -1170,11 +1170,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="str">
         <f>[1]tot_tut!B24</f>
-        <v>(22.1)</v>
+        <v>(22.0)</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>[1]tot_tut!C24</f>
-        <v>(551.6)</v>
+        <v>(551.3)</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>[1]tot_tut!D24</f>
@@ -1252,15 +1252,15 @@
       </c>
       <c r="B22" s="6" t="str">
         <f>[1]tot_tut!B31</f>
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>[1]tot_tut!C31</f>
-        <v>0.90</v>
+        <v>0.93</v>
       </c>
       <c r="D22" s="6" t="str">
         <f>[1]tot_tut!D31</f>
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E22" s="6" t="str">
         <f>[1]tot_tut!E31</f>
@@ -1273,11 +1273,11 @@
       </c>
       <c r="B23" s="6" t="str">
         <f>[1]tot_tut!B32</f>
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>[1]tot_tut!C32</f>
-        <v>0.90</v>
+        <v>0.93</v>
       </c>
       <c r="D23" s="6" t="str">
         <f>[1]tot_tut!D32</f>
@@ -1294,11 +1294,11 @@
       </c>
       <c r="B24" s="6" t="str">
         <f>[1]tot_tut!B33</f>
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>[1]tot_tut!C33</f>
-        <v>0.90</v>
+        <v>0.93</v>
       </c>
       <c r="D24" s="6" t="str">
         <f>[1]tot_tut!D33</f>
@@ -1315,15 +1315,15 @@
       </c>
       <c r="B25" s="5" t="str">
         <f>[1]tot_tut!B34</f>
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>[1]tot_tut!C34</f>
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>[1]tot_tut!D34</f>
-        <v>0.068</v>
+        <v>0.070</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>[1]tot_tut!E34</f>

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B705E10E-D250-4857-8189-20011B294C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7D841-58E9-4869-9423-E77E36CB1E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21555" yWindow="-15060" windowWidth="14400" windowHeight="8175" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="-20475" yWindow="-13980" windowWidth="21600" windowHeight="11235" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
@@ -203,13 +203,13 @@
             <v>ATE</v>
           </cell>
           <cell r="B5" t="str">
-            <v>9.17***</v>
+            <v>9.41***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>181.7***</v>
+            <v>183.0***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>7.62***</v>
+            <v>7.74***</v>
           </cell>
           <cell r="E5" t="str">
             <v>6.34**</v>
@@ -220,10 +220,10 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(2.04)</v>
+            <v>(2.06)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(50.9)</v>
+            <v>(50.8)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(2.50)</v>
@@ -237,10 +237,10 @@
             <v>ToT</v>
           </cell>
           <cell r="B8" t="str">
-            <v>-0.29</v>
+            <v>-0.59</v>
           </cell>
           <cell r="C8" t="str">
-            <v>136.1</v>
+            <v>111.9</v>
           </cell>
           <cell r="D8" t="str">
             <v>37.4*</v>
@@ -254,10 +254,10 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(21.0)</v>
+            <v>(21.4)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(527.1)</v>
+            <v>(528.3)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(21.6)</v>
@@ -271,13 +271,13 @@
             <v>TuT</v>
           </cell>
           <cell r="B11" t="str">
-            <v>10.3***</v>
+            <v>10.6***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>187.1***</v>
+            <v>191.5***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>4.07*</v>
+            <v>4.20*</v>
           </cell>
           <cell r="E11" t="str">
             <v>10.2***</v>
@@ -288,10 +288,10 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(2.44)</v>
+            <v>(2.47)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(50.7)</v>
+            <v>(50.8)</v>
           </cell>
           <cell r="D12" t="str">
             <v>(2.41)</v>
@@ -302,13 +302,13 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>-56.6***</v>
+            <v>-56.8***</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-941.1***</v>
+            <v>-942.4***</v>
           </cell>
           <cell r="D14" t="str">
-            <v>56.6***</v>
+            <v>56.4***</v>
           </cell>
           <cell r="E14" t="str">
             <v>60.9***</v>
@@ -350,7 +350,7 @@
             <v/>
           </cell>
           <cell r="B18" t="str">
-            <v>(1.47)</v>
+            <v>(1.49)</v>
           </cell>
           <cell r="C18" t="str">
             <v>(42.9)</v>
@@ -367,13 +367,13 @@
             <v>ToT-TuT</v>
           </cell>
           <cell r="B20" t="str">
-            <v>-10.6</v>
+            <v>-11.2</v>
           </cell>
           <cell r="C20" t="str">
-            <v>-51.0</v>
+            <v>-79.6</v>
           </cell>
           <cell r="D20" t="str">
-            <v>33.4</v>
+            <v>33.2</v>
           </cell>
           <cell r="E20" t="str">
             <v>-36.1</v>
@@ -384,10 +384,10 @@
             <v/>
           </cell>
           <cell r="B21" t="str">
-            <v>(22.5)</v>
+            <v>(22.9)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(554.9)</v>
+            <v>(556.2)</v>
           </cell>
           <cell r="D21" t="str">
             <v>(22.6)</v>
@@ -401,13 +401,13 @@
             <v>ASB</v>
           </cell>
           <cell r="B23" t="str">
-            <v>15.2</v>
+            <v>15.8</v>
           </cell>
           <cell r="C23" t="str">
-            <v>262.9</v>
+            <v>291.5</v>
           </cell>
           <cell r="D23" t="str">
-            <v>-39.3*</v>
+            <v>-39.1*</v>
           </cell>
           <cell r="E23" t="str">
             <v>22.7</v>
@@ -415,10 +415,10 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(22.0)</v>
+            <v>(22.3)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(551.3)</v>
+            <v>(551.2)</v>
           </cell>
           <cell r="D24" t="str">
             <v>(22.3)</v>
@@ -474,10 +474,10 @@
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>0.63</v>
+            <v>0.62</v>
           </cell>
           <cell r="C31" t="str">
-            <v>0.93</v>
+            <v>0.89</v>
           </cell>
           <cell r="D31" t="str">
             <v>0.14</v>
@@ -488,10 +488,10 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>0.64</v>
+            <v>0.63</v>
           </cell>
           <cell r="C32" t="str">
-            <v>0.93</v>
+            <v>0.89</v>
           </cell>
           <cell r="D32" t="str">
             <v>0.14</v>
@@ -502,10 +502,10 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>0.64</v>
+            <v>0.63</v>
           </cell>
           <cell r="C33" t="str">
-            <v>0.93</v>
+            <v>0.89</v>
           </cell>
           <cell r="D33" t="str">
             <v>0.14</v>
@@ -516,13 +516,13 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>0.68</v>
+            <v>0.69</v>
           </cell>
           <cell r="C34" t="str">
-            <v>0.54</v>
+            <v>0.56</v>
           </cell>
           <cell r="D34" t="str">
-            <v>0.070</v>
+            <v>0.071</v>
           </cell>
           <cell r="E34" t="str">
             <v>0.88</v>
@@ -890,15 +890,15 @@
       </c>
       <c r="B4" s="6" t="str">
         <f>[1]tot_tut!B5</f>
-        <v>9.17***</v>
+        <v>9.41***</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>[1]tot_tut!C5</f>
-        <v>181.7***</v>
+        <v>183.0***</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>[1]tot_tut!D5</f>
-        <v>7.62***</v>
+        <v>7.74***</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>[1]tot_tut!E5</f>
@@ -912,11 +912,11 @@
       </c>
       <c r="B5" s="6" t="str">
         <f>[1]tot_tut!B6</f>
-        <v>(2.04)</v>
+        <v>(2.06)</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>[1]tot_tut!C6</f>
-        <v>(50.9)</v>
+        <v>(50.8)</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>[1]tot_tut!D6</f>
@@ -934,11 +934,11 @@
       </c>
       <c r="B6" s="6" t="str">
         <f>[1]tot_tut!B8</f>
-        <v>-0.29</v>
+        <v>-0.59</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>[1]tot_tut!C8</f>
-        <v>136.1</v>
+        <v>111.9</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>[1]tot_tut!D8</f>
@@ -956,11 +956,11 @@
       </c>
       <c r="B7" s="6" t="str">
         <f>[1]tot_tut!B9</f>
-        <v>(21.0)</v>
+        <v>(21.4)</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>[1]tot_tut!C9</f>
-        <v>(527.1)</v>
+        <v>(528.3)</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>[1]tot_tut!D9</f>
@@ -978,15 +978,15 @@
       </c>
       <c r="B8" s="6" t="str">
         <f>[1]tot_tut!B11</f>
-        <v>10.3***</v>
+        <v>10.6***</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>[1]tot_tut!C11</f>
-        <v>187.1***</v>
+        <v>191.5***</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>[1]tot_tut!D11</f>
-        <v>4.07*</v>
+        <v>4.20*</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>[1]tot_tut!E11</f>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="B9" s="6" t="str">
         <f>[1]tot_tut!B12</f>
-        <v>(2.44)</v>
+        <v>(2.47)</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>[1]tot_tut!C12</f>
-        <v>(50.7)</v>
+        <v>(50.8)</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>[1]tot_tut!D12</f>
@@ -1021,15 +1021,15 @@
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!B14</f>
-        <v>-56.6***</v>
+        <v>-56.8***</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>[1]tot_tut!C14</f>
-        <v>-941.1***</v>
+        <v>-942.4***</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>[1]tot_tut!D14</f>
-        <v>56.6***</v>
+        <v>56.4***</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>[1]tot_tut!E14</f>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B13" s="6" t="str">
         <f>[1]tot_tut!B18</f>
-        <v>(1.47)</v>
+        <v>(1.49)</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>[1]tot_tut!C18</f>
@@ -1108,15 +1108,15 @@
       </c>
       <c r="B14" s="7" t="str">
         <f>[1]tot_tut!B20</f>
-        <v>-10.6</v>
+        <v>-11.2</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>[1]tot_tut!C20</f>
-        <v>-51.0</v>
+        <v>-79.6</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>[1]tot_tut!D20</f>
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>[1]tot_tut!E20</f>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="B15" s="6" t="str">
         <f>[1]tot_tut!B21</f>
-        <v>(22.5)</v>
+        <v>(22.9)</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>[1]tot_tut!C21</f>
-        <v>(554.9)</v>
+        <v>(556.2)</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>[1]tot_tut!D21</f>
@@ -1152,15 +1152,15 @@
       </c>
       <c r="B16" s="6" t="str">
         <f>[1]tot_tut!B23</f>
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>[1]tot_tut!C23</f>
-        <v>262.9</v>
+        <v>291.5</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>[1]tot_tut!D23</f>
-        <v>-39.3*</v>
+        <v>-39.1*</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>[1]tot_tut!E23</f>
@@ -1170,11 +1170,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="str">
         <f>[1]tot_tut!B24</f>
-        <v>(22.0)</v>
+        <v>(22.3)</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>[1]tot_tut!C24</f>
-        <v>(551.3)</v>
+        <v>(551.2)</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>[1]tot_tut!D24</f>
@@ -1252,11 +1252,11 @@
       </c>
       <c r="B22" s="6" t="str">
         <f>[1]tot_tut!B31</f>
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>[1]tot_tut!C31</f>
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="D22" s="6" t="str">
         <f>[1]tot_tut!D31</f>
@@ -1273,11 +1273,11 @@
       </c>
       <c r="B23" s="6" t="str">
         <f>[1]tot_tut!B32</f>
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>[1]tot_tut!C32</f>
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="D23" s="6" t="str">
         <f>[1]tot_tut!D32</f>
@@ -1294,11 +1294,11 @@
       </c>
       <c r="B24" s="6" t="str">
         <f>[1]tot_tut!B33</f>
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>[1]tot_tut!C33</f>
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="D24" s="6" t="str">
         <f>[1]tot_tut!D33</f>
@@ -1315,15 +1315,15 @@
       </c>
       <c r="B25" s="5" t="str">
         <f>[1]tot_tut!B34</f>
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>[1]tot_tut!C34</f>
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>[1]tot_tut!D34</f>
-        <v>0.070</v>
+        <v>0.071</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>[1]tot_tut!E34</f>

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7D841-58E9-4869-9423-E77E36CB1E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0398B-1EE2-4DB6-A471-D152804EF24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20475" yWindow="-13980" windowWidth="21600" windowHeight="11235" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11260" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
@@ -302,16 +302,16 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>-56.8***</v>
+            <v>-47.4***</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-942.4***</v>
+            <v>-759.4***</v>
           </cell>
           <cell r="D14" t="str">
-            <v>56.4***</v>
+            <v>64.2***</v>
           </cell>
           <cell r="E14" t="str">
-            <v>60.9***</v>
+            <v>67.2***</v>
           </cell>
         </row>
         <row r="15">
@@ -333,16 +333,16 @@
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>-47.4***</v>
+            <v>-56.8***</v>
           </cell>
           <cell r="C17" t="str">
-            <v>-759.4***</v>
+            <v>-942.4***</v>
           </cell>
           <cell r="D17" t="str">
-            <v>64.2***</v>
+            <v>56.4***</v>
           </cell>
           <cell r="E17" t="str">
-            <v>67.2***</v>
+            <v>60.9***</v>
           </cell>
         </row>
         <row r="18">
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254A23C4-4F24-410C-AB8B-7C80ABB413D1}">
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E25" sqref="A2:E25"/>
     </sheetView>
   </sheetViews>
@@ -1021,19 +1021,19 @@
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!B14</f>
-        <v>-56.8***</v>
+        <v>-47.4***</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>[1]tot_tut!C14</f>
-        <v>-942.4***</v>
+        <v>-759.4***</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>[1]tot_tut!D14</f>
-        <v>56.4***</v>
+        <v>64.2***</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>[1]tot_tut!E14</f>
-        <v>60.9***</v>
+        <v>67.2***</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1064,19 +1064,19 @@
       </c>
       <c r="B12" s="6" t="str">
         <f>[1]tot_tut!B17</f>
-        <v>-47.4***</v>
+        <v>-56.8***</v>
       </c>
       <c r="C12" s="6" t="str">
         <f>[1]tot_tut!C17</f>
-        <v>-759.4***</v>
+        <v>-942.4***</v>
       </c>
       <c r="D12" s="6" t="str">
         <f>[1]tot_tut!D17</f>
-        <v>64.2***</v>
+        <v>56.4***</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>[1]tot_tut!E17</f>
-        <v>67.2***</v>
+        <v>60.9***</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0398B-1EE2-4DB6-A471-D152804EF24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6794A3F-BB65-44C3-A64E-AABDB971A185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11260" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="-28920" yWindow="-9735" windowWidth="29040" windowHeight="15720" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Observations</t>
   </si>
@@ -62,16 +62,19 @@
     <t>$H_0$ : ATE-ToT=0</t>
   </si>
   <si>
-    <t>$H_0$ : ToT-TuT=0</t>
-  </si>
-  <si>
-    <t>$H_0$ : ToT-TuT$\geq$ 0</t>
-  </si>
-  <si>
     <t>$\mathbb{E}[Y_1]$</t>
   </si>
   <si>
     <t>$\mathbb{E}[Y_0]$</t>
+  </si>
+  <si>
+    <t>ASG</t>
+  </si>
+  <si>
+    <t>$H_0$ : ASG=0</t>
+  </si>
+  <si>
+    <t>$H_0$ : ASG$\geq$ 0</t>
   </si>
 </sst>
 </file>
@@ -363,9 +366,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>ToT-TuT</v>
-          </cell>
           <cell r="B20" t="str">
             <v>-11.2</v>
           </cell>
@@ -535,9 +535,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -575,7 +575,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -681,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -823,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254A23C4-4F24-410C-AB8B-7C80ABB413D1}">
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="A2:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!B14</f>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="str">
         <f>[1]tot_tut!B17</f>
@@ -1102,9 +1102,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="str">
-        <f>[1]tot_tut!A20</f>
-        <v>ToT-TuT</v>
+      <c r="A14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>[1]tot_tut!B20</f>
@@ -1290,7 +1289,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" s="6" t="str">
         <f>[1]tot_tut!B33</f>
@@ -1311,7 +1310,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" s="5" t="str">
         <f>[1]tot_tut!B34</f>

--- a/Tables/tot_tut.xlsx
+++ b/Tables/tot_tut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6794A3F-BB65-44C3-A64E-AABDB971A185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D286EB-EDFC-4864-8327-AD3022C97C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-9735" windowWidth="29040" windowHeight="15720" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
